--- a/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>OLA</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>11200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>9400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,42 +887,48 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1100</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -917,19 +940,22 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +964,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6900</v>
+        <v>7400</v>
       </c>
       <c r="E17" s="3">
-        <v>9800</v>
+        <v>6800</v>
       </c>
       <c r="F17" s="3">
-        <v>7500</v>
+        <v>9700</v>
       </c>
       <c r="G17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
-        <v>15300</v>
-      </c>
       <c r="I17" s="3">
-        <v>11700</v>
+        <v>15200</v>
       </c>
       <c r="J17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-9800</v>
+        <v>-6800</v>
       </c>
       <c r="F18" s="3">
-        <v>-7500</v>
+        <v>-9700</v>
       </c>
       <c r="G18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-15300</v>
-      </c>
       <c r="I18" s="3">
-        <v>-11700</v>
+        <v>-15200</v>
       </c>
       <c r="J18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,28 +1052,31 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-4100</v>
+        <v>5700</v>
       </c>
       <c r="F20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,28 +1084,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-13800</v>
+        <v>-1100</v>
       </c>
       <c r="F21" s="3">
-        <v>-8600</v>
+        <v>-13700</v>
       </c>
       <c r="G21" s="3">
-        <v>-9500</v>
+        <v>-8500</v>
       </c>
       <c r="H21" s="3">
-        <v>-13400</v>
+        <v>-9400</v>
       </c>
       <c r="I21" s="3">
-        <v>-12000</v>
+        <v>-13300</v>
       </c>
       <c r="J21" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,54 +1119,60 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1200</v>
+        <v>-12200</v>
       </c>
       <c r="E23" s="3">
-        <v>-13900</v>
+        <v>-1100</v>
       </c>
       <c r="F23" s="3">
-        <v>-9800</v>
+        <v>-13800</v>
       </c>
       <c r="G23" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="H23" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I23" s="3">
-        <v>-13100</v>
+        <v>-15800</v>
       </c>
       <c r="J23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1200</v>
+        <v>-12200</v>
       </c>
       <c r="E26" s="3">
-        <v>-13900</v>
+        <v>-1100</v>
       </c>
       <c r="F26" s="3">
-        <v>-9800</v>
+        <v>-13800</v>
       </c>
       <c r="G26" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="H26" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I26" s="3">
-        <v>-13100</v>
+        <v>-15800</v>
       </c>
       <c r="J26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1200</v>
+        <v>-12200</v>
       </c>
       <c r="E27" s="3">
-        <v>-13900</v>
+        <v>-1100</v>
       </c>
       <c r="F27" s="3">
-        <v>-9800</v>
+        <v>-13800</v>
       </c>
       <c r="G27" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="H27" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I27" s="3">
-        <v>-13100</v>
+        <v>-15800</v>
       </c>
       <c r="J27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1436,63 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>4100</v>
+        <v>-5700</v>
       </c>
       <c r="F32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
-        <v>3300</v>
-      </c>
       <c r="H32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1200</v>
+        <v>-12200</v>
       </c>
       <c r="E33" s="3">
-        <v>-13900</v>
+        <v>-1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-9800</v>
+        <v>-13800</v>
       </c>
       <c r="G33" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="H33" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I33" s="3">
-        <v>-13100</v>
+        <v>-15800</v>
       </c>
       <c r="J33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1200</v>
+        <v>-12200</v>
       </c>
       <c r="E35" s="3">
-        <v>-13900</v>
+        <v>-1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-9800</v>
+        <v>-13800</v>
       </c>
       <c r="G35" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="H35" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I35" s="3">
-        <v>-13100</v>
+        <v>-15800</v>
       </c>
       <c r="J35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>65500</v>
+        <v>64600</v>
       </c>
       <c r="E41" s="3">
-        <v>40000</v>
+        <v>65000</v>
       </c>
       <c r="F41" s="3">
-        <v>92600</v>
+        <v>39800</v>
       </c>
       <c r="G41" s="3">
-        <v>53500</v>
+        <v>91900</v>
       </c>
       <c r="H41" s="3">
-        <v>70100</v>
+        <v>53200</v>
       </c>
       <c r="I41" s="3">
-        <v>19800</v>
+        <v>69600</v>
       </c>
       <c r="J41" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K41" s="3">
         <v>29600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1600,16 +1693,16 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -1618,10 +1711,13 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,124 +1745,139 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>4200</v>
       </c>
       <c r="E45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F45" s="3">
         <v>5800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>900</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
       </c>
       <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>70300</v>
+        <v>69000</v>
       </c>
       <c r="E46" s="3">
-        <v>45900</v>
+        <v>69800</v>
       </c>
       <c r="F46" s="3">
-        <v>93800</v>
+        <v>45600</v>
       </c>
       <c r="G46" s="3">
-        <v>54600</v>
+        <v>93100</v>
       </c>
       <c r="H46" s="3">
-        <v>70400</v>
+        <v>54300</v>
       </c>
       <c r="I46" s="3">
-        <v>19900</v>
+        <v>69900</v>
       </c>
       <c r="J46" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K46" s="3">
         <v>29800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24900</v>
+        <v>28200</v>
       </c>
       <c r="E47" s="3">
-        <v>19600</v>
+        <v>24800</v>
       </c>
       <c r="F47" s="3">
-        <v>11000</v>
+        <v>19500</v>
       </c>
       <c r="G47" s="3">
-        <v>27500</v>
+        <v>10900</v>
       </c>
       <c r="H47" s="3">
-        <v>15000</v>
+        <v>27300</v>
       </c>
       <c r="I47" s="3">
+        <v>14900</v>
+      </c>
+      <c r="J47" s="3">
         <v>1600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>345800</v>
+        <v>372700</v>
       </c>
       <c r="E48" s="3">
-        <v>300100</v>
+        <v>343500</v>
       </c>
       <c r="F48" s="3">
-        <v>198500</v>
+        <v>298000</v>
       </c>
       <c r="G48" s="3">
-        <v>156200</v>
+        <v>197100</v>
       </c>
       <c r="H48" s="3">
-        <v>153800</v>
+        <v>155100</v>
       </c>
       <c r="I48" s="3">
-        <v>151600</v>
+        <v>152700</v>
       </c>
       <c r="J48" s="3">
+        <v>150500</v>
+      </c>
+      <c r="K48" s="3">
         <v>162000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1861,13 +1981,13 @@
         <v>3600</v>
       </c>
       <c r="E52" s="3">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="F52" s="3">
-        <v>3600</v>
+        <v>4700</v>
       </c>
       <c r="G52" s="3">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
@@ -1876,13 +1996,16 @@
         <v>700</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>444700</v>
+        <v>473500</v>
       </c>
       <c r="E54" s="3">
-        <v>370400</v>
+        <v>441600</v>
       </c>
       <c r="F54" s="3">
-        <v>306800</v>
+        <v>367800</v>
       </c>
       <c r="G54" s="3">
-        <v>239000</v>
+        <v>304700</v>
       </c>
       <c r="H54" s="3">
-        <v>239800</v>
+        <v>237300</v>
       </c>
       <c r="I54" s="3">
-        <v>173700</v>
+        <v>238200</v>
       </c>
       <c r="J54" s="3">
+        <v>172500</v>
+      </c>
+      <c r="K54" s="3">
         <v>193700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7400</v>
+        <v>4000</v>
       </c>
       <c r="E57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>600</v>
       </c>
       <c r="J57" s="3">
         <v>600</v>
       </c>
       <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,57 +2137,63 @@
         <v>13100</v>
       </c>
       <c r="E58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>300</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14700</v>
+        <v>18100</v>
       </c>
       <c r="E59" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F59" s="3">
         <v>10800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2061,71 +2201,77 @@
         <v>35200</v>
       </c>
       <c r="E60" s="3">
-        <v>15600</v>
+        <v>34900</v>
       </c>
       <c r="F60" s="3">
-        <v>9900</v>
+        <v>15500</v>
       </c>
       <c r="G60" s="3">
+        <v>9800</v>
+      </c>
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>191600</v>
+        <v>191800</v>
       </c>
       <c r="E61" s="3">
-        <v>139000</v>
+        <v>190300</v>
       </c>
       <c r="F61" s="3">
-        <v>90100</v>
+        <v>138100</v>
       </c>
       <c r="G61" s="3">
+        <v>89500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>27500</v>
+      </c>
+      <c r="I61" s="3">
         <v>27700</v>
       </c>
-      <c r="H61" s="3">
-        <v>27900</v>
-      </c>
-      <c r="I61" s="3">
-        <v>28400</v>
-      </c>
       <c r="J61" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K61" s="3">
         <v>29100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4200</v>
+        <v>6100</v>
       </c>
       <c r="E62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1200</v>
       </c>
       <c r="H62" s="3">
         <v>1200</v>
@@ -2134,13 +2280,16 @@
         <v>1200</v>
       </c>
       <c r="J62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>230900</v>
+        <v>233000</v>
       </c>
       <c r="E66" s="3">
-        <v>157600</v>
+        <v>229400</v>
       </c>
       <c r="F66" s="3">
-        <v>100800</v>
+        <v>156600</v>
       </c>
       <c r="G66" s="3">
-        <v>34900</v>
+        <v>100100</v>
       </c>
       <c r="H66" s="3">
+        <v>34600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>33900</v>
+      </c>
+      <c r="J66" s="3">
         <v>34100</v>
       </c>
-      <c r="I66" s="3">
-        <v>34300</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-94000</v>
+        <v>-105200</v>
       </c>
       <c r="E72" s="3">
         <v>-93300</v>
       </c>
       <c r="F72" s="3">
-        <v>-77400</v>
+        <v>-92700</v>
       </c>
       <c r="G72" s="3">
-        <v>-68700</v>
+        <v>-76900</v>
       </c>
       <c r="H72" s="3">
-        <v>-57900</v>
+        <v>-68300</v>
       </c>
       <c r="I72" s="3">
-        <v>-54900</v>
+        <v>-57500</v>
       </c>
       <c r="J72" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-42400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>213700</v>
+        <v>240500</v>
       </c>
       <c r="E76" s="3">
-        <v>212700</v>
+        <v>212300</v>
       </c>
       <c r="F76" s="3">
-        <v>206000</v>
+        <v>211300</v>
       </c>
       <c r="G76" s="3">
-        <v>204100</v>
+        <v>204500</v>
       </c>
       <c r="H76" s="3">
-        <v>205700</v>
+        <v>202700</v>
       </c>
       <c r="I76" s="3">
-        <v>139400</v>
+        <v>204300</v>
       </c>
       <c r="J76" s="3">
+        <v>138400</v>
+      </c>
+      <c r="K76" s="3">
         <v>160500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>201600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1200</v>
+        <v>-12200</v>
       </c>
       <c r="E81" s="3">
-        <v>-13900</v>
+        <v>-1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-9800</v>
+        <v>-13800</v>
       </c>
       <c r="G81" s="3">
-        <v>-9800</v>
+        <v>-9700</v>
       </c>
       <c r="H81" s="3">
-        <v>-15900</v>
+        <v>-9700</v>
       </c>
       <c r="I81" s="3">
-        <v>-13100</v>
+        <v>-15800</v>
       </c>
       <c r="J81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,13 +2832,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2649,22 +2848,25 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>-500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-8800</v>
-      </c>
       <c r="H89" s="3">
-        <v>-11400</v>
+        <v>-8700</v>
       </c>
       <c r="I89" s="3">
-        <v>-9300</v>
+        <v>-11300</v>
       </c>
       <c r="J89" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-12100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-36300</v>
+        <v>-32900</v>
       </c>
       <c r="E94" s="3">
-        <v>-62300</v>
+        <v>-36100</v>
       </c>
       <c r="F94" s="3">
-        <v>-16800</v>
+        <v>-61900</v>
       </c>
       <c r="G94" s="3">
-        <v>-14000</v>
+        <v>-16700</v>
       </c>
       <c r="H94" s="3">
-        <v>-16500</v>
+        <v>-13900</v>
       </c>
       <c r="I94" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>60800</v>
+        <v>38000</v>
       </c>
       <c r="E100" s="3">
-        <v>15800</v>
+        <v>60400</v>
       </c>
       <c r="F100" s="3">
-        <v>55500</v>
+        <v>15700</v>
       </c>
       <c r="G100" s="3">
+        <v>55100</v>
+      </c>
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="H100" s="3">
-        <v>70100</v>
-      </c>
       <c r="I100" s="3">
+        <v>69600</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>37800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
-        <v>300</v>
-      </c>
       <c r="J101" s="3">
+        <v>200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>25400</v>
+        <v>-400</v>
       </c>
       <c r="E102" s="3">
-        <v>-52600</v>
+        <v>25300</v>
       </c>
       <c r="F102" s="3">
-        <v>39000</v>
+        <v>-52200</v>
       </c>
       <c r="G102" s="3">
-        <v>-16600</v>
+        <v>38800</v>
       </c>
       <c r="H102" s="3">
-        <v>40500</v>
+        <v>-16500</v>
       </c>
       <c r="I102" s="3">
-        <v>-9900</v>
+        <v>40200</v>
       </c>
       <c r="J102" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K102" s="3">
         <v>27800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
@@ -899,7 +899,7 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="F14" s="3">
         <v>-100</v>
@@ -1096,7 +1096,7 @@
         <v>-9400</v>
       </c>
       <c r="I21" s="3">
-        <v>-13300</v>
+        <v>-13400</v>
       </c>
       <c r="J21" s="3">
         <v>-11900</v>
@@ -1635,16 +1635,16 @@
         <v>39800</v>
       </c>
       <c r="G41" s="3">
-        <v>91900</v>
+        <v>92000</v>
       </c>
       <c r="H41" s="3">
         <v>53200</v>
       </c>
       <c r="I41" s="3">
-        <v>69600</v>
+        <v>69700</v>
       </c>
       <c r="J41" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="K41" s="3">
         <v>29600</v>
@@ -1786,16 +1786,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>69000</v>
+        <v>69100</v>
       </c>
       <c r="E46" s="3">
-        <v>69800</v>
+        <v>69900</v>
       </c>
       <c r="F46" s="3">
         <v>45600</v>
       </c>
       <c r="G46" s="3">
-        <v>93100</v>
+        <v>93200</v>
       </c>
       <c r="H46" s="3">
         <v>54300</v>
@@ -1850,25 +1850,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>372700</v>
+        <v>372900</v>
       </c>
       <c r="E48" s="3">
-        <v>343500</v>
+        <v>343600</v>
       </c>
       <c r="F48" s="3">
-        <v>298000</v>
+        <v>298100</v>
       </c>
       <c r="G48" s="3">
-        <v>197100</v>
+        <v>197200</v>
       </c>
       <c r="H48" s="3">
-        <v>155100</v>
+        <v>155200</v>
       </c>
       <c r="I48" s="3">
-        <v>152700</v>
+        <v>152800</v>
       </c>
       <c r="J48" s="3">
-        <v>150500</v>
+        <v>150600</v>
       </c>
       <c r="K48" s="3">
         <v>162000</v>
@@ -2042,25 +2042,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>473500</v>
+        <v>473700</v>
       </c>
       <c r="E54" s="3">
-        <v>441600</v>
+        <v>441800</v>
       </c>
       <c r="F54" s="3">
-        <v>367800</v>
+        <v>368000</v>
       </c>
       <c r="G54" s="3">
-        <v>304700</v>
+        <v>304800</v>
       </c>
       <c r="H54" s="3">
-        <v>237300</v>
+        <v>237400</v>
       </c>
       <c r="I54" s="3">
-        <v>238200</v>
+        <v>238300</v>
       </c>
       <c r="J54" s="3">
-        <v>172500</v>
+        <v>172600</v>
       </c>
       <c r="K54" s="3">
         <v>193700</v>
@@ -2134,7 +2134,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="E58" s="3">
         <v>13000</v>
@@ -2233,13 +2233,13 @@
         <v>191800</v>
       </c>
       <c r="E61" s="3">
-        <v>190300</v>
+        <v>190400</v>
       </c>
       <c r="F61" s="3">
         <v>138100</v>
       </c>
       <c r="G61" s="3">
-        <v>89500</v>
+        <v>89600</v>
       </c>
       <c r="H61" s="3">
         <v>27500</v>
@@ -2390,16 +2390,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>233000</v>
+        <v>233100</v>
       </c>
       <c r="E66" s="3">
-        <v>229400</v>
+        <v>229500</v>
       </c>
       <c r="F66" s="3">
         <v>156600</v>
       </c>
       <c r="G66" s="3">
-        <v>100100</v>
+        <v>100200</v>
       </c>
       <c r="H66" s="3">
         <v>34600</v>
@@ -2692,7 +2692,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>240500</v>
+        <v>240600</v>
       </c>
       <c r="E76" s="3">
         <v>212300</v>
@@ -2701,16 +2701,16 @@
         <v>211300</v>
       </c>
       <c r="G76" s="3">
-        <v>204500</v>
+        <v>204600</v>
       </c>
       <c r="H76" s="3">
-        <v>202700</v>
+        <v>202800</v>
       </c>
       <c r="I76" s="3">
-        <v>204300</v>
+        <v>204400</v>
       </c>
       <c r="J76" s="3">
-        <v>138400</v>
+        <v>138500</v>
       </c>
       <c r="K76" s="3">
         <v>160500</v>
@@ -3347,7 +3347,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>38000</v>
+        <v>38100</v>
       </c>
       <c r="E100" s="3">
         <v>60400</v>
@@ -3356,7 +3356,7 @@
         <v>15700</v>
       </c>
       <c r="G100" s="3">
-        <v>55100</v>
+        <v>55200</v>
       </c>
       <c r="H100" s="3">
         <v>3400</v>

--- a/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>OLA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>51400</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>5300</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -748,16 +755,22 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1800</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -780,16 +793,22 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3600</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -812,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +851,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="L12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="N12" s="3">
         <v>4600</v>
       </c>
-      <c r="E12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>11200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,52 +923,64 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -943,19 +988,25 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1016,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7400</v>
+        <v>21800</v>
       </c>
       <c r="E17" s="3">
-        <v>6800</v>
+        <v>8600</v>
       </c>
       <c r="F17" s="3">
-        <v>9700</v>
+        <v>7500</v>
       </c>
       <c r="G17" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="H17" s="3">
-        <v>5700</v>
+        <v>9900</v>
       </c>
       <c r="I17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K17" s="3">
         <v>15200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>29600</v>
       </c>
       <c r="E18" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="I18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-15200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1108,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>5700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>1300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-400</v>
       </c>
       <c r="L20" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>27900</v>
       </c>
       <c r="E21" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="I21" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-13400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-11900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1122,80 +1201,92 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>1200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1900</v>
       </c>
       <c r="J22" s="3">
         <v>800</v>
       </c>
       <c r="K22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L22" s="3">
+        <v>800</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12200</v>
+        <v>27400</v>
       </c>
       <c r="E23" s="3">
-        <v>-1100</v>
+        <v>-6500</v>
       </c>
       <c r="F23" s="3">
-        <v>-13800</v>
+        <v>-12500</v>
       </c>
       <c r="G23" s="3">
-        <v>-9700</v>
+        <v>-1200</v>
       </c>
       <c r="H23" s="3">
-        <v>-9700</v>
+        <v>-14100</v>
       </c>
       <c r="I23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1203,8 +1294,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1332,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12200</v>
+        <v>24500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1100</v>
+        <v>-6500</v>
       </c>
       <c r="F26" s="3">
-        <v>-13800</v>
+        <v>-12500</v>
       </c>
       <c r="G26" s="3">
-        <v>-9700</v>
+        <v>-1200</v>
       </c>
       <c r="H26" s="3">
-        <v>-9700</v>
+        <v>-14100</v>
       </c>
       <c r="I26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12200</v>
+        <v>24500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1100</v>
+        <v>-6500</v>
       </c>
       <c r="F27" s="3">
-        <v>-13800</v>
+        <v>-12500</v>
       </c>
       <c r="G27" s="3">
-        <v>-9700</v>
+        <v>-1200</v>
       </c>
       <c r="H27" s="3">
-        <v>-9700</v>
+        <v>-14100</v>
       </c>
       <c r="I27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1560,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>400</v>
       </c>
       <c r="L32" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12200</v>
+        <v>24500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1100</v>
+        <v>-6500</v>
       </c>
       <c r="F33" s="3">
-        <v>-13800</v>
+        <v>-12500</v>
       </c>
       <c r="G33" s="3">
-        <v>-9700</v>
+        <v>-1200</v>
       </c>
       <c r="H33" s="3">
-        <v>-9700</v>
+        <v>-14100</v>
       </c>
       <c r="I33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1674,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12200</v>
+        <v>24500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1100</v>
+        <v>-6500</v>
       </c>
       <c r="F35" s="3">
-        <v>-13800</v>
+        <v>-12500</v>
       </c>
       <c r="G35" s="3">
-        <v>-9700</v>
+        <v>-1200</v>
       </c>
       <c r="H35" s="3">
-        <v>-9700</v>
+        <v>-14100</v>
       </c>
       <c r="I35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1791,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>64600</v>
+        <v>45700</v>
       </c>
       <c r="E41" s="3">
-        <v>65000</v>
+        <v>26800</v>
       </c>
       <c r="F41" s="3">
-        <v>39800</v>
+        <v>66100</v>
       </c>
       <c r="G41" s="3">
-        <v>92000</v>
+        <v>66600</v>
       </c>
       <c r="H41" s="3">
-        <v>53200</v>
+        <v>40700</v>
       </c>
       <c r="I41" s="3">
+        <v>94200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>54400</v>
+      </c>
+      <c r="K41" s="3">
         <v>69700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>19700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>29600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,63 +1863,75 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>12600</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1748,136 +1939,166 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4200</v>
+        <v>3600</v>
       </c>
       <c r="E45" s="3">
-        <v>4600</v>
+        <v>1400</v>
       </c>
       <c r="F45" s="3">
-        <v>5800</v>
+        <v>4300</v>
       </c>
       <c r="G45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>69100</v>
+        <v>88700</v>
       </c>
       <c r="E46" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>70700</v>
+      </c>
+      <c r="G46" s="3">
+        <v>71500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>46700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>95400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K46" s="3">
         <v>69900</v>
       </c>
-      <c r="F46" s="3">
-        <v>45600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>93200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>54300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>69900</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>19800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>29800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28200</v>
+        <v>6100</v>
       </c>
       <c r="E47" s="3">
-        <v>24800</v>
+        <v>9700</v>
       </c>
       <c r="F47" s="3">
-        <v>19500</v>
+        <v>28800</v>
       </c>
       <c r="G47" s="3">
-        <v>10900</v>
+        <v>25400</v>
       </c>
       <c r="H47" s="3">
-        <v>27300</v>
+        <v>20000</v>
       </c>
       <c r="I47" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K47" s="3">
         <v>14900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>372900</v>
+        <v>410100</v>
       </c>
       <c r="E48" s="3">
-        <v>343600</v>
+        <v>396700</v>
       </c>
       <c r="F48" s="3">
-        <v>298100</v>
+        <v>381700</v>
       </c>
       <c r="G48" s="3">
-        <v>197200</v>
+        <v>351700</v>
       </c>
       <c r="H48" s="3">
-        <v>155200</v>
+        <v>305200</v>
       </c>
       <c r="I48" s="3">
+        <v>201800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>158800</v>
+      </c>
+      <c r="K48" s="3">
         <v>152800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>150600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>162000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2205,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
       </c>
       <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
+        <v>700</v>
+      </c>
+      <c r="N52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2281,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>473700</v>
+        <v>512600</v>
       </c>
       <c r="E54" s="3">
-        <v>441800</v>
+        <v>476000</v>
       </c>
       <c r="F54" s="3">
-        <v>368000</v>
+        <v>484900</v>
       </c>
       <c r="G54" s="3">
-        <v>304800</v>
+        <v>452200</v>
       </c>
       <c r="H54" s="3">
-        <v>237400</v>
+        <v>376700</v>
       </c>
       <c r="I54" s="3">
+        <v>312000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>243000</v>
+      </c>
+      <c r="K54" s="3">
         <v>238300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>172600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>193700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2355,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2105,191 +2366,227 @@
         <v>4000</v>
       </c>
       <c r="E57" s="3">
-        <v>7300</v>
+        <v>7900</v>
       </c>
       <c r="F57" s="3">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="G57" s="3">
-        <v>3300</v>
+        <v>7500</v>
       </c>
       <c r="H57" s="3">
-        <v>1200</v>
+        <v>4500</v>
       </c>
       <c r="I57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13200</v>
+        <v>34400</v>
       </c>
       <c r="E58" s="3">
-        <v>13000</v>
+        <v>33500</v>
       </c>
       <c r="F58" s="3">
+        <v>13500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18100</v>
+        <v>20000</v>
       </c>
       <c r="E59" s="3">
-        <v>14600</v>
+        <v>7900</v>
       </c>
       <c r="F59" s="3">
-        <v>10800</v>
+        <v>18500</v>
       </c>
       <c r="G59" s="3">
-        <v>6400</v>
+        <v>14900</v>
       </c>
       <c r="H59" s="3">
-        <v>4700</v>
+        <v>11000</v>
       </c>
       <c r="I59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35200</v>
+        <v>58400</v>
       </c>
       <c r="E60" s="3">
-        <v>34900</v>
+        <v>49300</v>
       </c>
       <c r="F60" s="3">
-        <v>15500</v>
+        <v>36000</v>
       </c>
       <c r="G60" s="3">
-        <v>9800</v>
+        <v>35800</v>
       </c>
       <c r="H60" s="3">
-        <v>6000</v>
+        <v>15800</v>
       </c>
       <c r="I60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>191800</v>
+        <v>179800</v>
       </c>
       <c r="E61" s="3">
-        <v>190400</v>
+        <v>178800</v>
       </c>
       <c r="F61" s="3">
-        <v>138100</v>
+        <v>196400</v>
       </c>
       <c r="G61" s="3">
-        <v>89600</v>
+        <v>194900</v>
       </c>
       <c r="H61" s="3">
-        <v>27500</v>
+        <v>141400</v>
       </c>
       <c r="I61" s="3">
+        <v>91700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K61" s="3">
         <v>27700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>28200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>29100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6100</v>
+        <v>7300</v>
       </c>
       <c r="E62" s="3">
-        <v>4100</v>
+        <v>7300</v>
       </c>
       <c r="F62" s="3">
-        <v>3000</v>
+        <v>6200</v>
       </c>
       <c r="G62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I62" s="3">
         <v>800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1200</v>
       </c>
       <c r="J62" s="3">
         <v>1200</v>
       </c>
       <c r="K62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2693,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>233100</v>
+        <v>245500</v>
       </c>
       <c r="E66" s="3">
-        <v>229500</v>
+        <v>235400</v>
       </c>
       <c r="F66" s="3">
-        <v>156600</v>
+        <v>238600</v>
       </c>
       <c r="G66" s="3">
-        <v>100200</v>
+        <v>234900</v>
       </c>
       <c r="H66" s="3">
-        <v>34600</v>
+        <v>160300</v>
       </c>
       <c r="I66" s="3">
+        <v>102500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K66" s="3">
         <v>33900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>34100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>33200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2899,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-105200</v>
+        <v>-89900</v>
       </c>
       <c r="E72" s="3">
-        <v>-93300</v>
+        <v>-113800</v>
       </c>
       <c r="F72" s="3">
-        <v>-92700</v>
+        <v>-107700</v>
       </c>
       <c r="G72" s="3">
-        <v>-76900</v>
+        <v>-95500</v>
       </c>
       <c r="H72" s="3">
-        <v>-68300</v>
+        <v>-94900</v>
       </c>
       <c r="I72" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-69900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-57500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-54500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-42400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3051,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267100</v>
+      </c>
+      <c r="E76" s="3">
         <v>240600</v>
       </c>
-      <c r="E76" s="3">
-        <v>212300</v>
-      </c>
       <c r="F76" s="3">
-        <v>211300</v>
+        <v>246300</v>
       </c>
       <c r="G76" s="3">
-        <v>204600</v>
+        <v>217400</v>
       </c>
       <c r="H76" s="3">
-        <v>202800</v>
+        <v>216300</v>
       </c>
       <c r="I76" s="3">
+        <v>209500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>207600</v>
+      </c>
+      <c r="K76" s="3">
         <v>204400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>138500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>160500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>201600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3127,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12200</v>
+        <v>24500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1100</v>
+        <v>-6500</v>
       </c>
       <c r="F81" s="3">
-        <v>-13800</v>
+        <v>-12500</v>
       </c>
       <c r="G81" s="3">
-        <v>-9700</v>
+        <v>-1200</v>
       </c>
       <c r="H81" s="3">
-        <v>-9700</v>
+        <v>-14100</v>
       </c>
       <c r="I81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3228,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>-500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3452,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3700</v>
+        <v>26700</v>
       </c>
       <c r="E89" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-3100</v>
-      </c>
       <c r="H89" s="3">
-        <v>-8700</v>
+        <v>-6100</v>
       </c>
       <c r="I89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-11300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-12100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,28 +3510,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -3101,10 +3542,16 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3620,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32900</v>
+        <v>-5400</v>
       </c>
       <c r="E94" s="3">
-        <v>-36100</v>
+        <v>-13800</v>
       </c>
       <c r="F94" s="3">
-        <v>-61900</v>
+        <v>-33700</v>
       </c>
       <c r="G94" s="3">
-        <v>-16700</v>
+        <v>-37000</v>
       </c>
       <c r="H94" s="3">
-        <v>-13900</v>
+        <v>-63300</v>
       </c>
       <c r="I94" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3826,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>38100</v>
+        <v>-2600</v>
       </c>
       <c r="E100" s="3">
-        <v>60400</v>
+        <v>-4700</v>
       </c>
       <c r="F100" s="3">
-        <v>15700</v>
+        <v>39000</v>
       </c>
       <c r="G100" s="3">
-        <v>55200</v>
+        <v>61800</v>
       </c>
       <c r="H100" s="3">
-        <v>3400</v>
+        <v>16000</v>
       </c>
       <c r="I100" s="3">
+        <v>56500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K100" s="3">
         <v>69600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>37800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>3400</v>
+        <v>1100</v>
       </c>
       <c r="H101" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
-        <v>25300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-52200</v>
-      </c>
       <c r="G102" s="3">
-        <v>38800</v>
+        <v>25900</v>
       </c>
       <c r="H102" s="3">
-        <v>-16500</v>
+        <v>-53400</v>
       </c>
       <c r="I102" s="3">
+        <v>39700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K102" s="3">
         <v>40200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>27800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>51400</v>
+        <v>61800</v>
       </c>
       <c r="E8" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
@@ -749,8 +753,8 @@
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -761,20 +765,23 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13300</v>
+        <v>15300</v>
       </c>
       <c r="E9" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,19 +806,22 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>38100</v>
+        <v>46400</v>
       </c>
       <c r="E10" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+        <v>37800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="G12" s="3">
-        <v>4900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,61 +946,67 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -994,19 +1017,22 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,58 +1044,62 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21800</v>
+        <v>47500</v>
       </c>
       <c r="E17" s="3">
-        <v>8600</v>
+        <v>21600</v>
       </c>
       <c r="F17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G17" s="3">
         <v>7500</v>
       </c>
-      <c r="G17" s="3">
-        <v>7000</v>
-      </c>
       <c r="H17" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I17" s="3">
         <v>9900</v>
       </c>
-      <c r="I17" s="3">
-        <v>7600</v>
-      </c>
       <c r="J17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29600</v>
+        <v>14300</v>
       </c>
       <c r="E18" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1082,20 +1112,23 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-15200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,20 +1143,21 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1136,31 +1170,34 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>27900</v>
+        <v>26300</v>
       </c>
       <c r="E21" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+        <v>27600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-6400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1174,25 +1211,28 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-13400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1207,71 +1247,77 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>27400</v>
+        <v>14700</v>
       </c>
       <c r="E23" s="3">
+        <v>27100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-12500</v>
-      </c>
       <c r="G23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-14100</v>
-      </c>
       <c r="I23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-10000</v>
       </c>
-      <c r="J23" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
+        <v>15500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2800</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>4</v>
@@ -1288,8 +1334,8 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>24500</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-12500</v>
-      </c>
       <c r="G26" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-14100</v>
-      </c>
       <c r="I26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10000</v>
       </c>
-      <c r="J26" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>24500</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-12500</v>
-      </c>
       <c r="G27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-14100</v>
-      </c>
       <c r="I27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10000</v>
       </c>
-      <c r="J27" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,20 +1633,23 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1592,58 +1662,64 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>24500</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-12500</v>
-      </c>
       <c r="G33" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-14100</v>
-      </c>
       <c r="I33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10000</v>
       </c>
-      <c r="J33" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>24500</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-12500</v>
-      </c>
       <c r="G35" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-14100</v>
-      </c>
       <c r="I35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10000</v>
       </c>
-      <c r="J35" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>45700</v>
+        <v>86300</v>
       </c>
       <c r="E41" s="3">
-        <v>26800</v>
+        <v>45300</v>
       </c>
       <c r="F41" s="3">
-        <v>66100</v>
+        <v>26500</v>
       </c>
       <c r="G41" s="3">
-        <v>66600</v>
+        <v>65500</v>
       </c>
       <c r="H41" s="3">
-        <v>40700</v>
+        <v>66000</v>
       </c>
       <c r="I41" s="3">
-        <v>94200</v>
+        <v>40300</v>
       </c>
       <c r="J41" s="3">
+        <v>93300</v>
+      </c>
+      <c r="K41" s="3">
         <v>54400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>69700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,34 +1959,37 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25500</v>
+        <v>15800</v>
       </c>
       <c r="E43" s="3">
-        <v>22300</v>
+        <v>25300</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>22100</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -1905,21 +1998,24 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13900</v>
+        <v>19900</v>
       </c>
       <c r="E44" s="3">
-        <v>12600</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+        <v>13700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>12500</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -1933,8 +2029,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1945,160 +2041,175 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="E45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4700</v>
       </c>
-      <c r="H45" s="3">
-        <v>5900</v>
-      </c>
       <c r="I45" s="3">
-        <v>900</v>
+        <v>5800</v>
       </c>
       <c r="J45" s="3">
         <v>900</v>
       </c>
       <c r="K45" s="3">
+        <v>900</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>88700</v>
+        <v>124700</v>
       </c>
       <c r="E46" s="3">
-        <v>63100</v>
+        <v>87900</v>
       </c>
       <c r="F46" s="3">
-        <v>70700</v>
+        <v>62500</v>
       </c>
       <c r="G46" s="3">
-        <v>71500</v>
+        <v>70000</v>
       </c>
       <c r="H46" s="3">
-        <v>46700</v>
+        <v>70900</v>
       </c>
       <c r="I46" s="3">
-        <v>95400</v>
+        <v>46300</v>
       </c>
       <c r="J46" s="3">
+        <v>94500</v>
+      </c>
+      <c r="K46" s="3">
         <v>55600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>69900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E47" s="3">
         <v>6100</v>
       </c>
-      <c r="E47" s="3">
-        <v>9700</v>
-      </c>
       <c r="F47" s="3">
-        <v>28800</v>
+        <v>9600</v>
       </c>
       <c r="G47" s="3">
-        <v>25400</v>
+        <v>28600</v>
       </c>
       <c r="H47" s="3">
-        <v>20000</v>
+        <v>25100</v>
       </c>
       <c r="I47" s="3">
-        <v>11200</v>
+        <v>19800</v>
       </c>
       <c r="J47" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K47" s="3">
         <v>27900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>410100</v>
+        <v>398900</v>
       </c>
       <c r="E48" s="3">
-        <v>396700</v>
+        <v>406300</v>
       </c>
       <c r="F48" s="3">
-        <v>381700</v>
+        <v>393100</v>
       </c>
       <c r="G48" s="3">
-        <v>351700</v>
+        <v>378200</v>
       </c>
       <c r="H48" s="3">
-        <v>305200</v>
+        <v>348500</v>
       </c>
       <c r="I48" s="3">
-        <v>201800</v>
+        <v>302400</v>
       </c>
       <c r="J48" s="3">
+        <v>200000</v>
+      </c>
+      <c r="K48" s="3">
         <v>158800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>152800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>150600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>162000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7800</v>
+        <v>9300</v>
       </c>
       <c r="E52" s="3">
-        <v>6500</v>
+        <v>7700</v>
       </c>
       <c r="F52" s="3">
-        <v>3700</v>
+        <v>6400</v>
       </c>
       <c r="G52" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H52" s="3">
-        <v>4900</v>
+        <v>3600</v>
       </c>
       <c r="I52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J52" s="3">
         <v>3600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>700</v>
       </c>
       <c r="L52" s="3">
+        <v>700</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>512600</v>
+        <v>538600</v>
       </c>
       <c r="E54" s="3">
-        <v>476000</v>
+        <v>507900</v>
       </c>
       <c r="F54" s="3">
-        <v>484900</v>
+        <v>471600</v>
       </c>
       <c r="G54" s="3">
-        <v>452200</v>
+        <v>480400</v>
       </c>
       <c r="H54" s="3">
-        <v>376700</v>
+        <v>448100</v>
       </c>
       <c r="I54" s="3">
-        <v>312000</v>
+        <v>373200</v>
       </c>
       <c r="J54" s="3">
+        <v>309100</v>
+      </c>
+      <c r="K54" s="3">
         <v>243000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>238300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>172600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>193700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,221 +2487,237 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
-        <v>7900</v>
-      </c>
       <c r="F57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
-        <v>7500</v>
-      </c>
       <c r="H57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
-        <v>3400</v>
-      </c>
       <c r="J57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
+        <v>600</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>34400</v>
+        <v>42000</v>
       </c>
       <c r="E58" s="3">
-        <v>33500</v>
+        <v>34100</v>
       </c>
       <c r="F58" s="3">
-        <v>13500</v>
+        <v>33200</v>
       </c>
       <c r="G58" s="3">
         <v>13300</v>
       </c>
       <c r="H58" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20000</v>
+        <v>30900</v>
       </c>
       <c r="E59" s="3">
-        <v>7900</v>
+        <v>19800</v>
       </c>
       <c r="F59" s="3">
-        <v>18500</v>
+        <v>7800</v>
       </c>
       <c r="G59" s="3">
-        <v>14900</v>
+        <v>18300</v>
       </c>
       <c r="H59" s="3">
-        <v>11000</v>
+        <v>14800</v>
       </c>
       <c r="I59" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J59" s="3">
         <v>6500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>58400</v>
+        <v>75400</v>
       </c>
       <c r="E60" s="3">
-        <v>49300</v>
+        <v>57900</v>
       </c>
       <c r="F60" s="3">
-        <v>36000</v>
+        <v>48800</v>
       </c>
       <c r="G60" s="3">
-        <v>35800</v>
+        <v>35700</v>
       </c>
       <c r="H60" s="3">
-        <v>15800</v>
+        <v>35400</v>
       </c>
       <c r="I60" s="3">
-        <v>10100</v>
+        <v>15700</v>
       </c>
       <c r="J60" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>179800</v>
+        <v>175500</v>
       </c>
       <c r="E61" s="3">
-        <v>178800</v>
+        <v>178100</v>
       </c>
       <c r="F61" s="3">
-        <v>196400</v>
+        <v>177200</v>
       </c>
       <c r="G61" s="3">
-        <v>194900</v>
+        <v>194600</v>
       </c>
       <c r="H61" s="3">
-        <v>141400</v>
+        <v>193100</v>
       </c>
       <c r="I61" s="3">
-        <v>91700</v>
+        <v>140100</v>
       </c>
       <c r="J61" s="3">
+        <v>90800</v>
+      </c>
+      <c r="K61" s="3">
         <v>28100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F62" s="3">
         <v>7300</v>
       </c>
-      <c r="E62" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6200</v>
-      </c>
       <c r="G62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H62" s="3">
         <v>4200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>1200</v>
@@ -2580,13 +2726,16 @@
         <v>1200</v>
       </c>
       <c r="M62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>245500</v>
+        <v>257700</v>
       </c>
       <c r="E66" s="3">
-        <v>235400</v>
+        <v>243200</v>
       </c>
       <c r="F66" s="3">
-        <v>238600</v>
+        <v>233200</v>
       </c>
       <c r="G66" s="3">
-        <v>234900</v>
+        <v>236400</v>
       </c>
       <c r="H66" s="3">
-        <v>160300</v>
+        <v>232700</v>
       </c>
       <c r="I66" s="3">
-        <v>102500</v>
+        <v>158900</v>
       </c>
       <c r="J66" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K66" s="3">
         <v>35500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-89900</v>
+        <v>-94800</v>
       </c>
       <c r="E72" s="3">
-        <v>-113800</v>
+        <v>-89100</v>
       </c>
       <c r="F72" s="3">
-        <v>-107700</v>
+        <v>-112700</v>
       </c>
       <c r="G72" s="3">
-        <v>-95500</v>
+        <v>-106700</v>
       </c>
       <c r="H72" s="3">
-        <v>-94900</v>
+        <v>-94700</v>
       </c>
       <c r="I72" s="3">
-        <v>-78700</v>
+        <v>-94100</v>
       </c>
       <c r="J72" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-69900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-42400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>267100</v>
+        <v>281000</v>
       </c>
       <c r="E76" s="3">
-        <v>240600</v>
+        <v>264700</v>
       </c>
       <c r="F76" s="3">
-        <v>246300</v>
+        <v>238300</v>
       </c>
       <c r="G76" s="3">
-        <v>217400</v>
+        <v>244000</v>
       </c>
       <c r="H76" s="3">
-        <v>216300</v>
+        <v>215400</v>
       </c>
       <c r="I76" s="3">
-        <v>209500</v>
+        <v>214300</v>
       </c>
       <c r="J76" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K76" s="3">
         <v>207600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>204400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>138500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>160500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>201600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>24500</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>24300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-12500</v>
-      </c>
       <c r="G81" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-14100</v>
-      </c>
       <c r="I81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10000</v>
       </c>
-      <c r="J81" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,23 +3428,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -3254,22 +3453,25 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>-500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26700</v>
+        <v>25800</v>
       </c>
       <c r="E89" s="3">
-        <v>-22300</v>
+        <v>26500</v>
       </c>
       <c r="F89" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-3200</v>
-      </c>
       <c r="J89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
-        <v>-13800</v>
-      </c>
       <c r="F94" s="3">
-        <v>-33700</v>
+        <v>-13700</v>
       </c>
       <c r="G94" s="3">
-        <v>-37000</v>
+        <v>-33400</v>
       </c>
       <c r="H94" s="3">
-        <v>-63300</v>
+        <v>-36600</v>
       </c>
       <c r="I94" s="3">
-        <v>-17100</v>
+        <v>-62800</v>
       </c>
       <c r="J94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4700</v>
       </c>
-      <c r="F100" s="3">
-        <v>39000</v>
-      </c>
       <c r="G100" s="3">
-        <v>61800</v>
+        <v>38600</v>
       </c>
       <c r="H100" s="3">
-        <v>16000</v>
+        <v>61300</v>
       </c>
       <c r="I100" s="3">
-        <v>56500</v>
+        <v>15900</v>
       </c>
       <c r="J100" s="3">
+        <v>55900</v>
+      </c>
+      <c r="K100" s="3">
         <v>3500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>69600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>37800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
-        <v>1100</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>3500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>18900</v>
+        <v>41000</v>
       </c>
       <c r="E102" s="3">
-        <v>-39400</v>
+        <v>18800</v>
       </c>
       <c r="F102" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
-        <v>25900</v>
-      </c>
       <c r="H102" s="3">
-        <v>-53400</v>
+        <v>25600</v>
       </c>
       <c r="I102" s="3">
-        <v>39700</v>
+        <v>-53000</v>
       </c>
       <c r="J102" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-16900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>40200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>27800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>61800</v>
+        <v>65300</v>
       </c>
       <c r="E8" s="3">
-        <v>50900</v>
+        <v>63700</v>
       </c>
       <c r="F8" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+        <v>52500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -756,8 +760,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -768,23 +772,26 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15300</v>
+        <v>17600</v>
       </c>
       <c r="E9" s="3">
-        <v>13200</v>
+        <v>15800</v>
       </c>
       <c r="F9" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -809,22 +816,25 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>46400</v>
+        <v>47700</v>
       </c>
       <c r="E10" s="3">
-        <v>37800</v>
+        <v>47800</v>
       </c>
       <c r="F10" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+        <v>38900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3700</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3700</v>
-      </c>
       <c r="G12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P12" s="3">
         <v>4600</v>
       </c>
-      <c r="H12" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="L12" s="3">
-        <v>11200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>9400</v>
-      </c>
-      <c r="N12" s="3">
-        <v>3900</v>
-      </c>
-      <c r="O12" s="3">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,67 +966,73 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17900</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1020,19 +1043,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,63 +1071,67 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>47500</v>
+        <v>40900</v>
       </c>
       <c r="E17" s="3">
-        <v>21600</v>
+        <v>48900</v>
       </c>
       <c r="F17" s="3">
-        <v>8500</v>
+        <v>22300</v>
       </c>
       <c r="G17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K17" s="3">
         <v>7500</v>
       </c>
-      <c r="H17" s="3">
-        <v>6900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>9900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>7500</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14300</v>
+        <v>24300</v>
       </c>
       <c r="E18" s="3">
-        <v>29300</v>
+        <v>14700</v>
       </c>
       <c r="F18" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+        <v>30200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-3300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
@@ -1115,20 +1145,23 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-15200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,22 +1177,23 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3900</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3">
+        <v>-3400</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1173,34 +1207,37 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>26300</v>
+        <v>39000</v>
       </c>
       <c r="E21" s="3">
-        <v>27600</v>
+        <v>27100</v>
       </c>
       <c r="F21" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
+        <v>28400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-6600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1214,28 +1251,31 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-13400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1250,77 +1290,83 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14700</v>
+        <v>26400</v>
       </c>
       <c r="E23" s="3">
-        <v>27100</v>
+        <v>15200</v>
       </c>
       <c r="F23" s="3">
-        <v>-6500</v>
+        <v>27900</v>
       </c>
       <c r="G23" s="3">
-        <v>-12300</v>
+        <v>-6700</v>
       </c>
       <c r="H23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
-        <v>-14000</v>
-      </c>
       <c r="J23" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15500</v>
+        <v>14600</v>
       </c>
       <c r="E24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+        <v>16000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2900</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1337,8 +1383,8 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
-        <v>24300</v>
-      </c>
       <c r="F26" s="3">
-        <v>-6500</v>
+        <v>25000</v>
       </c>
       <c r="G26" s="3">
-        <v>-12300</v>
+        <v>-6700</v>
       </c>
       <c r="H26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-14000</v>
-      </c>
       <c r="J26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
-        <v>24300</v>
-      </c>
       <c r="F27" s="3">
-        <v>-6500</v>
+        <v>25000</v>
       </c>
       <c r="G27" s="3">
-        <v>-12300</v>
+        <v>-6700</v>
       </c>
       <c r="H27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
-        <v>-14000</v>
-      </c>
       <c r="J27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,22 +1703,25 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3900</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3">
+        <v>3400</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -1665,61 +1735,67 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
-        <v>24300</v>
-      </c>
       <c r="F33" s="3">
-        <v>-6500</v>
+        <v>25000</v>
       </c>
       <c r="G33" s="3">
-        <v>-12300</v>
+        <v>-6700</v>
       </c>
       <c r="H33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
-        <v>-14000</v>
-      </c>
       <c r="J33" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
-        <v>24300</v>
-      </c>
       <c r="F35" s="3">
-        <v>-6500</v>
+        <v>25000</v>
       </c>
       <c r="G35" s="3">
-        <v>-12300</v>
+        <v>-6700</v>
       </c>
       <c r="H35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
-        <v>-14000</v>
-      </c>
       <c r="J35" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>86300</v>
+        <v>118700</v>
       </c>
       <c r="E41" s="3">
-        <v>45300</v>
+        <v>88900</v>
       </c>
       <c r="F41" s="3">
-        <v>26500</v>
+        <v>46700</v>
       </c>
       <c r="G41" s="3">
-        <v>65500</v>
+        <v>27300</v>
       </c>
       <c r="H41" s="3">
-        <v>66000</v>
+        <v>67500</v>
       </c>
       <c r="I41" s="3">
-        <v>40300</v>
+        <v>68000</v>
       </c>
       <c r="J41" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K41" s="3">
         <v>93300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>69700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>29600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,37 +2052,40 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15800</v>
+        <v>7600</v>
       </c>
       <c r="E43" s="3">
-        <v>25300</v>
+        <v>16300</v>
       </c>
       <c r="F43" s="3">
-        <v>22100</v>
+        <v>26100</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>22700</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2001,24 +2094,27 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19900</v>
+        <v>24300</v>
       </c>
       <c r="E44" s="3">
-        <v>13700</v>
+        <v>20500</v>
       </c>
       <c r="F44" s="3">
-        <v>12500</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+        <v>14200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>12900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2032,8 +2128,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2044,172 +2140,187 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
-        <v>3500</v>
-      </c>
       <c r="F45" s="3">
-        <v>1400</v>
+        <v>3600</v>
       </c>
       <c r="G45" s="3">
-        <v>4300</v>
+        <v>1500</v>
       </c>
       <c r="H45" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="I45" s="3">
-        <v>5800</v>
+        <v>4800</v>
       </c>
       <c r="J45" s="3">
-        <v>900</v>
+        <v>6000</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
       </c>
       <c r="L45" s="3">
+        <v>900</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>124700</v>
+        <v>156700</v>
       </c>
       <c r="E46" s="3">
-        <v>87900</v>
+        <v>128500</v>
       </c>
       <c r="F46" s="3">
-        <v>62500</v>
+        <v>90500</v>
       </c>
       <c r="G46" s="3">
-        <v>70000</v>
+        <v>64400</v>
       </c>
       <c r="H46" s="3">
-        <v>70900</v>
+        <v>72200</v>
       </c>
       <c r="I46" s="3">
-        <v>46300</v>
+        <v>73000</v>
       </c>
       <c r="J46" s="3">
+        <v>47700</v>
+      </c>
+      <c r="K46" s="3">
         <v>94500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>55600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>69900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="E47" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="F47" s="3">
-        <v>9600</v>
+        <v>6300</v>
       </c>
       <c r="G47" s="3">
-        <v>28600</v>
+        <v>9900</v>
       </c>
       <c r="H47" s="3">
-        <v>25100</v>
+        <v>29500</v>
       </c>
       <c r="I47" s="3">
-        <v>19800</v>
+        <v>25900</v>
       </c>
       <c r="J47" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K47" s="3">
         <v>11100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>398900</v>
+        <v>610900</v>
       </c>
       <c r="E48" s="3">
-        <v>406300</v>
+        <v>411100</v>
       </c>
       <c r="F48" s="3">
-        <v>393100</v>
+        <v>418700</v>
       </c>
       <c r="G48" s="3">
-        <v>378200</v>
+        <v>405000</v>
       </c>
       <c r="H48" s="3">
-        <v>348500</v>
+        <v>389700</v>
       </c>
       <c r="I48" s="3">
-        <v>302400</v>
+        <v>359100</v>
       </c>
       <c r="J48" s="3">
+        <v>311600</v>
+      </c>
+      <c r="K48" s="3">
         <v>200000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>158800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>152800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>150600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>162000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9300</v>
+        <v>14300</v>
       </c>
       <c r="E52" s="3">
-        <v>7700</v>
+        <v>9600</v>
       </c>
       <c r="F52" s="3">
-        <v>6400</v>
+        <v>7900</v>
       </c>
       <c r="G52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K52" s="3">
         <v>3600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>700</v>
       </c>
       <c r="L52" s="3">
         <v>700</v>
       </c>
       <c r="M52" s="3">
+        <v>700</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>538600</v>
+        <v>787900</v>
       </c>
       <c r="E54" s="3">
-        <v>507900</v>
+        <v>555000</v>
       </c>
       <c r="F54" s="3">
-        <v>471600</v>
+        <v>523400</v>
       </c>
       <c r="G54" s="3">
-        <v>480400</v>
+        <v>486000</v>
       </c>
       <c r="H54" s="3">
-        <v>448100</v>
+        <v>495000</v>
       </c>
       <c r="I54" s="3">
-        <v>373200</v>
+        <v>461700</v>
       </c>
       <c r="J54" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K54" s="3">
         <v>309100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>243000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>238300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>172600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>193700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,239 +2618,255 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2500</v>
+        <v>4400</v>
       </c>
       <c r="E57" s="3">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="F57" s="3">
-        <v>7800</v>
+        <v>4100</v>
       </c>
       <c r="G57" s="3">
-        <v>4000</v>
+        <v>8100</v>
       </c>
       <c r="H57" s="3">
-        <v>7400</v>
+        <v>4100</v>
       </c>
       <c r="I57" s="3">
-        <v>4500</v>
+        <v>7600</v>
       </c>
       <c r="J57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>600</v>
       </c>
       <c r="N57" s="3">
         <v>600</v>
       </c>
       <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>42000</v>
+        <v>50400</v>
       </c>
       <c r="E58" s="3">
-        <v>34100</v>
+        <v>43300</v>
       </c>
       <c r="F58" s="3">
-        <v>33200</v>
+        <v>35200</v>
       </c>
       <c r="G58" s="3">
-        <v>13300</v>
+        <v>34200</v>
       </c>
       <c r="H58" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="I58" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>30900</v>
+        <v>48700</v>
       </c>
       <c r="E59" s="3">
-        <v>19800</v>
+        <v>31800</v>
       </c>
       <c r="F59" s="3">
-        <v>7800</v>
+        <v>20400</v>
       </c>
       <c r="G59" s="3">
-        <v>18300</v>
+        <v>8100</v>
       </c>
       <c r="H59" s="3">
-        <v>14800</v>
+        <v>18900</v>
       </c>
       <c r="I59" s="3">
-        <v>10900</v>
+        <v>15300</v>
       </c>
       <c r="J59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K59" s="3">
         <v>6500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>75400</v>
+        <v>103400</v>
       </c>
       <c r="E60" s="3">
-        <v>57900</v>
+        <v>77700</v>
       </c>
       <c r="F60" s="3">
-        <v>48800</v>
+        <v>59700</v>
       </c>
       <c r="G60" s="3">
-        <v>35700</v>
+        <v>50300</v>
       </c>
       <c r="H60" s="3">
-        <v>35400</v>
+        <v>36800</v>
       </c>
       <c r="I60" s="3">
-        <v>15700</v>
+        <v>36500</v>
       </c>
       <c r="J60" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K60" s="3">
         <v>10000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>175500</v>
+        <v>175300</v>
       </c>
       <c r="E61" s="3">
-        <v>178100</v>
+        <v>180900</v>
       </c>
       <c r="F61" s="3">
-        <v>177200</v>
+        <v>183500</v>
       </c>
       <c r="G61" s="3">
-        <v>194600</v>
+        <v>182600</v>
       </c>
       <c r="H61" s="3">
-        <v>193100</v>
+        <v>200500</v>
       </c>
       <c r="I61" s="3">
-        <v>140100</v>
+        <v>199000</v>
       </c>
       <c r="J61" s="3">
+        <v>144400</v>
+      </c>
+      <c r="K61" s="3">
         <v>90800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>29100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6800</v>
+        <v>10800</v>
       </c>
       <c r="E62" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="F62" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="G62" s="3">
-        <v>6100</v>
+        <v>7500</v>
       </c>
       <c r="H62" s="3">
-        <v>4200</v>
+        <v>6300</v>
       </c>
       <c r="I62" s="3">
-        <v>3100</v>
+        <v>4300</v>
       </c>
       <c r="J62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K62" s="3">
         <v>800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1200</v>
       </c>
       <c r="L62" s="3">
         <v>1200</v>
@@ -2729,13 +2875,16 @@
         <v>1200</v>
       </c>
       <c r="N62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>257700</v>
+        <v>289500</v>
       </c>
       <c r="E66" s="3">
-        <v>243200</v>
+        <v>265500</v>
       </c>
       <c r="F66" s="3">
-        <v>233200</v>
+        <v>250700</v>
       </c>
       <c r="G66" s="3">
-        <v>236400</v>
+        <v>240400</v>
       </c>
       <c r="H66" s="3">
-        <v>232700</v>
+        <v>243600</v>
       </c>
       <c r="I66" s="3">
-        <v>158900</v>
+        <v>239800</v>
       </c>
       <c r="J66" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K66" s="3">
         <v>101600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-94800</v>
+        <v>-83100</v>
       </c>
       <c r="E72" s="3">
-        <v>-89100</v>
+        <v>-97700</v>
       </c>
       <c r="F72" s="3">
-        <v>-112700</v>
+        <v>-91800</v>
       </c>
       <c r="G72" s="3">
-        <v>-106700</v>
+        <v>-116200</v>
       </c>
       <c r="H72" s="3">
-        <v>-94700</v>
+        <v>-110000</v>
       </c>
       <c r="I72" s="3">
-        <v>-94100</v>
+        <v>-97600</v>
       </c>
       <c r="J72" s="3">
+        <v>-96900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-78000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-42400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>281000</v>
+        <v>498400</v>
       </c>
       <c r="E76" s="3">
-        <v>264700</v>
+        <v>289500</v>
       </c>
       <c r="F76" s="3">
-        <v>238300</v>
+        <v>272700</v>
       </c>
       <c r="G76" s="3">
-        <v>244000</v>
+        <v>245600</v>
       </c>
       <c r="H76" s="3">
-        <v>215400</v>
+        <v>251400</v>
       </c>
       <c r="I76" s="3">
-        <v>214300</v>
+        <v>221900</v>
       </c>
       <c r="J76" s="3">
+        <v>220900</v>
+      </c>
+      <c r="K76" s="3">
         <v>207500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>207600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>204400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>138500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>160500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>201600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
-        <v>24300</v>
-      </c>
       <c r="F81" s="3">
-        <v>-6500</v>
+        <v>25000</v>
       </c>
       <c r="G81" s="3">
-        <v>-12300</v>
+        <v>-6700</v>
       </c>
       <c r="H81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
-        <v>-14000</v>
-      </c>
       <c r="J81" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,26 +3627,27 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8100</v>
+        <v>9400</v>
       </c>
       <c r="E83" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -3456,22 +3655,25 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>-500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25800</v>
+        <v>30700</v>
       </c>
       <c r="E89" s="3">
-        <v>26500</v>
+        <v>26600</v>
       </c>
       <c r="F89" s="3">
-        <v>-22100</v>
+        <v>27300</v>
       </c>
       <c r="G89" s="3">
-        <v>-3800</v>
+        <v>-22800</v>
       </c>
       <c r="H89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-6100</v>
-      </c>
       <c r="J89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
-        <v>-2700</v>
-      </c>
       <c r="G91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11400</v>
+        <v>2900</v>
       </c>
       <c r="E94" s="3">
-        <v>-5400</v>
+        <v>11700</v>
       </c>
       <c r="F94" s="3">
-        <v>-13700</v>
+        <v>-5500</v>
       </c>
       <c r="G94" s="3">
-        <v>-33400</v>
+        <v>-14100</v>
       </c>
       <c r="H94" s="3">
-        <v>-36600</v>
+        <v>-34400</v>
       </c>
       <c r="I94" s="3">
-        <v>-62800</v>
+        <v>-37700</v>
       </c>
       <c r="J94" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-16900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4200</v>
+        <v>-2600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2600</v>
+        <v>4300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4700</v>
+        <v>-2700</v>
       </c>
       <c r="G100" s="3">
-        <v>38600</v>
+        <v>-4800</v>
       </c>
       <c r="H100" s="3">
-        <v>61300</v>
+        <v>39800</v>
       </c>
       <c r="I100" s="3">
-        <v>15900</v>
+        <v>63100</v>
       </c>
       <c r="J100" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K100" s="3">
         <v>55900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>69600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>37800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>-2000</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41000</v>
+        <v>29800</v>
       </c>
       <c r="E102" s="3">
-        <v>18800</v>
+        <v>42200</v>
       </c>
       <c r="F102" s="3">
-        <v>-39000</v>
+        <v>19300</v>
       </c>
       <c r="G102" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
-        <v>25600</v>
-      </c>
       <c r="I102" s="3">
-        <v>-53000</v>
+        <v>26400</v>
       </c>
       <c r="J102" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="K102" s="3">
         <v>39300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>40200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>27800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
@@ -737,16 +737,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>65300</v>
+        <v>67800</v>
       </c>
       <c r="E8" s="3">
-        <v>63700</v>
+        <v>66100</v>
       </c>
       <c r="F8" s="3">
-        <v>52500</v>
+        <v>54500</v>
       </c>
       <c r="G8" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
@@ -781,16 +781,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>17600</v>
+        <v>18200</v>
       </c>
       <c r="E9" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="F9" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="G9" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -825,16 +825,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>47700</v>
+        <v>49500</v>
       </c>
       <c r="E10" s="3">
-        <v>47800</v>
+        <v>49700</v>
       </c>
       <c r="F10" s="3">
-        <v>38900</v>
+        <v>40400</v>
       </c>
       <c r="G10" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -887,25 +887,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="E12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F12" s="3">
         <v>3400</v>
       </c>
-      <c r="F12" s="3">
-        <v>3300</v>
-      </c>
       <c r="G12" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="I12" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="J12" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="K12" s="3">
         <v>5400</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>18400</v>
+        <v>19100</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
@@ -1019,10 +1019,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="E15" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1078,25 +1078,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40900</v>
+        <v>42500</v>
       </c>
       <c r="E17" s="3">
-        <v>48900</v>
+        <v>50800</v>
       </c>
       <c r="F17" s="3">
-        <v>22300</v>
+        <v>23100</v>
       </c>
       <c r="G17" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H17" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="I17" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="J17" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="K17" s="3">
         <v>7500</v>
@@ -1122,16 +1122,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="E18" s="3">
-        <v>14700</v>
+        <v>15300</v>
       </c>
       <c r="F18" s="3">
-        <v>30200</v>
+        <v>31300</v>
       </c>
       <c r="G18" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
@@ -1184,16 +1184,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E20" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1228,16 +1228,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>39000</v>
+        <v>40500</v>
       </c>
       <c r="E21" s="3">
-        <v>27100</v>
+        <v>28100</v>
       </c>
       <c r="F21" s="3">
-        <v>28400</v>
+        <v>29500</v>
       </c>
       <c r="G21" s="3">
-        <v>-6600</v>
+        <v>-6900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
@@ -1272,10 +1272,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E22" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="E23" s="3">
-        <v>15200</v>
+        <v>15800</v>
       </c>
       <c r="F23" s="3">
-        <v>27900</v>
+        <v>29000</v>
       </c>
       <c r="G23" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="H23" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="I23" s="3">
         <v>-1200</v>
       </c>
       <c r="J23" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="K23" s="3">
         <v>-9900</v>
@@ -1360,13 +1360,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14600</v>
+        <v>15100</v>
       </c>
       <c r="E24" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="F24" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -1448,25 +1448,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
       </c>
       <c r="F26" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="G26" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="H26" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="I26" s="3">
         <v>-1200</v>
       </c>
       <c r="J26" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="K26" s="3">
         <v>-9900</v>
@@ -1492,25 +1492,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
       </c>
       <c r="F27" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="G27" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="H27" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="I27" s="3">
         <v>-1200</v>
       </c>
       <c r="J27" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="K27" s="3">
         <v>-9900</v>
@@ -1712,16 +1712,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="E32" s="3">
-        <v>-4000</v>
+        <v>-4200</v>
       </c>
       <c r="F32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G32" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -1756,25 +1756,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="E33" s="3">
         <v>-800</v>
       </c>
       <c r="F33" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="G33" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="H33" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="I33" s="3">
         <v>-1200</v>
       </c>
       <c r="J33" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="K33" s="3">
         <v>-9900</v>
@@ -1844,25 +1844,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="E35" s="3">
         <v>-800</v>
       </c>
       <c r="F35" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="G35" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="H35" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="I35" s="3">
         <v>-1200</v>
       </c>
       <c r="J35" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="K35" s="3">
         <v>-9900</v>
@@ -1973,25 +1973,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>118700</v>
+        <v>123300</v>
       </c>
       <c r="E41" s="3">
-        <v>88900</v>
+        <v>92300</v>
       </c>
       <c r="F41" s="3">
-        <v>46700</v>
+        <v>48400</v>
       </c>
       <c r="G41" s="3">
-        <v>27300</v>
+        <v>28400</v>
       </c>
       <c r="H41" s="3">
-        <v>67500</v>
+        <v>70100</v>
       </c>
       <c r="I41" s="3">
-        <v>68000</v>
+        <v>70600</v>
       </c>
       <c r="J41" s="3">
-        <v>41600</v>
+        <v>43100</v>
       </c>
       <c r="K41" s="3">
         <v>93300</v>
@@ -2061,16 +2061,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="E43" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="F43" s="3">
-        <v>26100</v>
+        <v>27100</v>
       </c>
       <c r="G43" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
@@ -2105,16 +2105,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="E44" s="3">
-        <v>20500</v>
+        <v>21300</v>
       </c>
       <c r="F44" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="G44" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -2149,25 +2149,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="E45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F45" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="G45" s="3">
         <v>1500</v>
       </c>
       <c r="H45" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I45" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="J45" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="K45" s="3">
         <v>900</v>
@@ -2193,25 +2193,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>156700</v>
+        <v>162700</v>
       </c>
       <c r="E46" s="3">
-        <v>128500</v>
+        <v>133400</v>
       </c>
       <c r="F46" s="3">
-        <v>90500</v>
+        <v>94000</v>
       </c>
       <c r="G46" s="3">
-        <v>64400</v>
+        <v>66800</v>
       </c>
       <c r="H46" s="3">
-        <v>72200</v>
+        <v>74900</v>
       </c>
       <c r="I46" s="3">
-        <v>73000</v>
+        <v>75800</v>
       </c>
       <c r="J46" s="3">
-        <v>47700</v>
+        <v>49500</v>
       </c>
       <c r="K46" s="3">
         <v>94500</v>
@@ -2237,25 +2237,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E47" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F47" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G47" s="3">
-        <v>9900</v>
+        <v>10300</v>
       </c>
       <c r="H47" s="3">
-        <v>29500</v>
+        <v>30600</v>
       </c>
       <c r="I47" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="J47" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="K47" s="3">
         <v>11100</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>610900</v>
+        <v>634200</v>
       </c>
       <c r="E48" s="3">
-        <v>411100</v>
+        <v>426800</v>
       </c>
       <c r="F48" s="3">
-        <v>418700</v>
+        <v>434700</v>
       </c>
       <c r="G48" s="3">
-        <v>405000</v>
+        <v>420500</v>
       </c>
       <c r="H48" s="3">
-        <v>389700</v>
+        <v>404600</v>
       </c>
       <c r="I48" s="3">
-        <v>359100</v>
+        <v>372800</v>
       </c>
       <c r="J48" s="3">
-        <v>311600</v>
+        <v>323500</v>
       </c>
       <c r="K48" s="3">
         <v>200000</v>
@@ -2457,25 +2457,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="E52" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="F52" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="G52" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="H52" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="I52" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="J52" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K52" s="3">
         <v>3600</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>787900</v>
+        <v>818000</v>
       </c>
       <c r="E54" s="3">
-        <v>555000</v>
+        <v>576300</v>
       </c>
       <c r="F54" s="3">
-        <v>523400</v>
+        <v>543400</v>
       </c>
       <c r="G54" s="3">
-        <v>486000</v>
+        <v>504500</v>
       </c>
       <c r="H54" s="3">
-        <v>495000</v>
+        <v>514000</v>
       </c>
       <c r="I54" s="3">
-        <v>461700</v>
+        <v>479400</v>
       </c>
       <c r="J54" s="3">
-        <v>384600</v>
+        <v>399300</v>
       </c>
       <c r="K54" s="3">
         <v>309100</v>
@@ -2625,25 +2625,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="E57" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F57" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G57" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="H57" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I57" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="J57" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K57" s="3">
         <v>3300</v>
@@ -2669,22 +2669,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>50400</v>
+        <v>52300</v>
       </c>
       <c r="E58" s="3">
-        <v>43300</v>
+        <v>44900</v>
       </c>
       <c r="F58" s="3">
-        <v>35200</v>
+        <v>36500</v>
       </c>
       <c r="G58" s="3">
-        <v>34200</v>
+        <v>35500</v>
       </c>
       <c r="H58" s="3">
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="I58" s="3">
-        <v>13600</v>
+        <v>14100</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -2713,25 +2713,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48700</v>
+        <v>50500</v>
       </c>
       <c r="E59" s="3">
-        <v>31800</v>
+        <v>33000</v>
       </c>
       <c r="F59" s="3">
-        <v>20400</v>
+        <v>21200</v>
       </c>
       <c r="G59" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="H59" s="3">
-        <v>18900</v>
+        <v>19600</v>
       </c>
       <c r="I59" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="J59" s="3">
-        <v>11200</v>
+        <v>11700</v>
       </c>
       <c r="K59" s="3">
         <v>6500</v>
@@ -2757,25 +2757,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>103400</v>
+        <v>107400</v>
       </c>
       <c r="E60" s="3">
-        <v>77700</v>
+        <v>80700</v>
       </c>
       <c r="F60" s="3">
-        <v>59700</v>
+        <v>62000</v>
       </c>
       <c r="G60" s="3">
-        <v>50300</v>
+        <v>52200</v>
       </c>
       <c r="H60" s="3">
-        <v>36800</v>
+        <v>38200</v>
       </c>
       <c r="I60" s="3">
-        <v>36500</v>
+        <v>37900</v>
       </c>
       <c r="J60" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="K60" s="3">
         <v>10000</v>
@@ -2801,25 +2801,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>175300</v>
+        <v>182000</v>
       </c>
       <c r="E61" s="3">
-        <v>180900</v>
+        <v>187800</v>
       </c>
       <c r="F61" s="3">
-        <v>183500</v>
+        <v>190600</v>
       </c>
       <c r="G61" s="3">
-        <v>182600</v>
+        <v>189600</v>
       </c>
       <c r="H61" s="3">
-        <v>200500</v>
+        <v>208200</v>
       </c>
       <c r="I61" s="3">
-        <v>199000</v>
+        <v>206600</v>
       </c>
       <c r="J61" s="3">
-        <v>144400</v>
+        <v>149900</v>
       </c>
       <c r="K61" s="3">
         <v>90800</v>
@@ -2845,25 +2845,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="E62" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F62" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="G62" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="H62" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="I62" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="J62" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="K62" s="3">
         <v>800</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>289500</v>
+        <v>300600</v>
       </c>
       <c r="E66" s="3">
-        <v>265500</v>
+        <v>275700</v>
       </c>
       <c r="F66" s="3">
-        <v>250700</v>
+        <v>260200</v>
       </c>
       <c r="G66" s="3">
-        <v>240400</v>
+        <v>249500</v>
       </c>
       <c r="H66" s="3">
-        <v>243600</v>
+        <v>252900</v>
       </c>
       <c r="I66" s="3">
-        <v>239800</v>
+        <v>249000</v>
       </c>
       <c r="J66" s="3">
-        <v>163700</v>
+        <v>170000</v>
       </c>
       <c r="K66" s="3">
         <v>101600</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-83100</v>
+        <v>-86200</v>
       </c>
       <c r="E72" s="3">
-        <v>-97700</v>
+        <v>-101400</v>
       </c>
       <c r="F72" s="3">
-        <v>-91800</v>
+        <v>-95300</v>
       </c>
       <c r="G72" s="3">
-        <v>-116200</v>
+        <v>-120600</v>
       </c>
       <c r="H72" s="3">
-        <v>-110000</v>
+        <v>-114200</v>
       </c>
       <c r="I72" s="3">
-        <v>-97600</v>
+        <v>-101300</v>
       </c>
       <c r="J72" s="3">
-        <v>-96900</v>
+        <v>-100600</v>
       </c>
       <c r="K72" s="3">
         <v>-78000</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>498400</v>
+        <v>517400</v>
       </c>
       <c r="E76" s="3">
-        <v>289500</v>
+        <v>300600</v>
       </c>
       <c r="F76" s="3">
-        <v>272700</v>
+        <v>283200</v>
       </c>
       <c r="G76" s="3">
-        <v>245600</v>
+        <v>255000</v>
       </c>
       <c r="H76" s="3">
-        <v>251400</v>
+        <v>261000</v>
       </c>
       <c r="I76" s="3">
-        <v>221900</v>
+        <v>230400</v>
       </c>
       <c r="J76" s="3">
-        <v>220900</v>
+        <v>229300</v>
       </c>
       <c r="K76" s="3">
         <v>207500</v>
@@ -3572,25 +3572,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="E81" s="3">
         <v>-800</v>
       </c>
       <c r="F81" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="G81" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="H81" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="I81" s="3">
         <v>-1200</v>
       </c>
       <c r="J81" s="3">
-        <v>-14400</v>
+        <v>-14900</v>
       </c>
       <c r="K81" s="3">
         <v>-9900</v>
@@ -3634,10 +3634,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="E83" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -3898,25 +3898,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>30700</v>
+        <v>31900</v>
       </c>
       <c r="E89" s="3">
-        <v>26600</v>
+        <v>27600</v>
       </c>
       <c r="F89" s="3">
-        <v>27300</v>
+        <v>28300</v>
       </c>
       <c r="G89" s="3">
-        <v>-22800</v>
+        <v>-23600</v>
       </c>
       <c r="H89" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K89" s="3">
         <v>-3100</v>
@@ -3960,16 +3960,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H91" s="3">
         <v>-600</v>
@@ -4092,25 +4092,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E94" s="3">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="G94" s="3">
-        <v>-14100</v>
+        <v>-14600</v>
       </c>
       <c r="H94" s="3">
-        <v>-34400</v>
+        <v>-35700</v>
       </c>
       <c r="I94" s="3">
-        <v>-37700</v>
+        <v>-39200</v>
       </c>
       <c r="J94" s="3">
-        <v>-64700</v>
+        <v>-67100</v>
       </c>
       <c r="K94" s="3">
         <v>-16900</v>
@@ -4330,25 +4330,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E100" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="G100" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="H100" s="3">
-        <v>39800</v>
+        <v>41300</v>
       </c>
       <c r="I100" s="3">
-        <v>63100</v>
+        <v>65500</v>
       </c>
       <c r="J100" s="3">
-        <v>16400</v>
+        <v>17000</v>
       </c>
       <c r="K100" s="3">
         <v>55900</v>
@@ -4374,7 +4374,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
         <v>-300</v>
@@ -4383,10 +4383,10 @@
         <v>200</v>
       </c>
       <c r="G101" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I101" s="3">
         <v>1100</v>
@@ -4418,25 +4418,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>29800</v>
+        <v>31000</v>
       </c>
       <c r="E102" s="3">
-        <v>42200</v>
+        <v>43800</v>
       </c>
       <c r="F102" s="3">
-        <v>19300</v>
+        <v>20100</v>
       </c>
       <c r="G102" s="3">
-        <v>-40200</v>
+        <v>-41800</v>
       </c>
       <c r="H102" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I102" s="3">
-        <v>26400</v>
+        <v>27400</v>
       </c>
       <c r="J102" s="3">
-        <v>-54600</v>
+        <v>-56700</v>
       </c>
       <c r="K102" s="3">
         <v>39300</v>

--- a/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>OLA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,101 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>67800</v>
+        <v>69000</v>
       </c>
       <c r="E8" s="3">
-        <v>66100</v>
+        <v>76700</v>
       </c>
       <c r="F8" s="3">
-        <v>54500</v>
+        <v>66200</v>
       </c>
       <c r="G8" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
+        <v>64500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>53200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
@@ -763,11 +770,11 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -775,28 +782,34 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="E9" s="3">
-        <v>16400</v>
+        <v>20100</v>
       </c>
       <c r="F9" s="3">
-        <v>14100</v>
+        <v>17800</v>
       </c>
       <c r="G9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+        <v>16000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -819,28 +832,34 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>49500</v>
+        <v>51300</v>
       </c>
       <c r="E10" s="3">
-        <v>49700</v>
+        <v>56500</v>
       </c>
       <c r="F10" s="3">
-        <v>40400</v>
+        <v>48300</v>
       </c>
       <c r="G10" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+        <v>48500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>39400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11500</v>
+        <v>9300</v>
       </c>
       <c r="E12" s="3">
-        <v>3500</v>
+        <v>7600</v>
       </c>
       <c r="F12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G12" s="3">
         <v>3400</v>
       </c>
-      <c r="G12" s="3">
-        <v>4000</v>
-      </c>
       <c r="H12" s="3">
-        <v>4900</v>
+        <v>3300</v>
       </c>
       <c r="I12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K12" s="3">
         <v>5200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>6800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>11200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>3900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,76 +1002,88 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8800</v>
+        <v>8100</v>
       </c>
       <c r="E15" s="3">
-        <v>7000</v>
+        <v>5100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1046,19 +1091,25 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,72 +1123,80 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>42500</v>
+        <v>40900</v>
       </c>
       <c r="E17" s="3">
-        <v>50800</v>
+        <v>37200</v>
       </c>
       <c r="F17" s="3">
-        <v>23100</v>
+        <v>41500</v>
       </c>
       <c r="G17" s="3">
-        <v>9100</v>
+        <v>48800</v>
       </c>
       <c r="H17" s="3">
-        <v>8000</v>
+        <v>22300</v>
       </c>
       <c r="I17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>11600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>25200</v>
+        <v>28100</v>
       </c>
       <c r="E18" s="3">
-        <v>15300</v>
+        <v>39500</v>
       </c>
       <c r="F18" s="3">
-        <v>31300</v>
+        <v>24600</v>
       </c>
       <c r="G18" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+        <v>15800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>30900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -1148,20 +1207,26 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-15200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-11600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-5900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,28 +1243,30 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5500</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>4200</v>
+        <v>-1500</v>
       </c>
       <c r="F20" s="3">
-        <v>-2300</v>
+        <v>5400</v>
       </c>
       <c r="G20" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+        <v>3300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3400</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1210,78 +1277,90 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>1300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-400</v>
       </c>
       <c r="P20" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>40500</v>
+        <v>36400</v>
       </c>
       <c r="E21" s="3">
-        <v>28100</v>
+        <v>40000</v>
       </c>
       <c r="F21" s="3">
-        <v>29500</v>
+        <v>39600</v>
       </c>
       <c r="G21" s="3">
+        <v>27500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-6900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-6900</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>4100</v>
       </c>
       <c r="E22" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1293,87 +1372,99 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>1200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1900</v>
       </c>
       <c r="N22" s="3">
         <v>800</v>
       </c>
       <c r="O22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="P22" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>27400</v>
+        <v>24200</v>
       </c>
       <c r="E23" s="3">
-        <v>15800</v>
+        <v>34200</v>
       </c>
       <c r="F23" s="3">
-        <v>29000</v>
+        <v>26800</v>
       </c>
       <c r="G23" s="3">
-        <v>-6900</v>
+        <v>15400</v>
       </c>
       <c r="H23" s="3">
-        <v>-13200</v>
+        <v>28300</v>
       </c>
       <c r="I23" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-14900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-15800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-13000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15100</v>
+        <v>6300</v>
       </c>
       <c r="E24" s="3">
-        <v>16600</v>
+        <v>9000</v>
       </c>
       <c r="F24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,11 +1477,11 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12300</v>
+        <v>17900</v>
       </c>
       <c r="E26" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H26" s="3">
-        <v>-13200</v>
+        <v>25400</v>
       </c>
       <c r="I26" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-15800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-13000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-6600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>12300</v>
+        <v>17900</v>
       </c>
       <c r="E27" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H27" s="3">
-        <v>-13200</v>
+        <v>25400</v>
       </c>
       <c r="I27" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-15800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-13000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-6600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,28 +1839,34 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5500</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-4200</v>
+        <v>1500</v>
       </c>
       <c r="F32" s="3">
-        <v>2300</v>
+        <v>-5400</v>
       </c>
       <c r="G32" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+        <v>-3300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3400</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -1738,64 +1877,76 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>400</v>
       </c>
       <c r="P32" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>400</v>
+      </c>
+      <c r="R32" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>12300</v>
+        <v>17900</v>
       </c>
       <c r="E33" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H33" s="3">
-        <v>-13200</v>
+        <v>25400</v>
       </c>
       <c r="I33" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-15800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-13000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-6600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>12300</v>
+        <v>17900</v>
       </c>
       <c r="E35" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H35" s="3">
-        <v>-13200</v>
+        <v>25400</v>
       </c>
       <c r="I35" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-15800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-13000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-6600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>123300</v>
+        <v>113100</v>
       </c>
       <c r="E41" s="3">
-        <v>92300</v>
+        <v>130000</v>
       </c>
       <c r="F41" s="3">
-        <v>48400</v>
+        <v>120300</v>
       </c>
       <c r="G41" s="3">
-        <v>28400</v>
+        <v>90100</v>
       </c>
       <c r="H41" s="3">
-        <v>70100</v>
+        <v>47300</v>
       </c>
       <c r="I41" s="3">
+        <v>27700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>68500</v>
+      </c>
+      <c r="K41" s="3">
         <v>70600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>43100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>93300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>54400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>69700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>19700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>29600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,72 +2234,84 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7900</v>
+        <v>12000</v>
       </c>
       <c r="E43" s="3">
-        <v>16900</v>
+        <v>12200</v>
       </c>
       <c r="F43" s="3">
-        <v>27100</v>
+        <v>7700</v>
       </c>
       <c r="G43" s="3">
-        <v>23600</v>
+        <v>16500</v>
       </c>
       <c r="H43" s="3">
+        <v>26400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25200</v>
+        <v>33600</v>
       </c>
       <c r="E44" s="3">
-        <v>21300</v>
+        <v>30300</v>
       </c>
       <c r="F44" s="3">
-        <v>14700</v>
+        <v>24600</v>
       </c>
       <c r="G44" s="3">
-        <v>13400</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+        <v>20800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>13000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -2131,11 +2322,11 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2143,184 +2334,214 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L45" s="3">
         <v>6300</v>
       </c>
-      <c r="E45" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>6300</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>162700</v>
+        <v>163700</v>
       </c>
       <c r="E46" s="3">
-        <v>133400</v>
+        <v>179400</v>
       </c>
       <c r="F46" s="3">
-        <v>94000</v>
+        <v>158800</v>
       </c>
       <c r="G46" s="3">
-        <v>66800</v>
+        <v>130200</v>
       </c>
       <c r="H46" s="3">
-        <v>74900</v>
+        <v>91800</v>
       </c>
       <c r="I46" s="3">
+        <v>65300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K46" s="3">
         <v>75800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>49500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>94500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>55600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>69900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>19800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>29800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6200</v>
+        <v>6800</v>
       </c>
       <c r="E47" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F47" s="3">
         <v>6100</v>
       </c>
-      <c r="F47" s="3">
-        <v>6500</v>
-      </c>
       <c r="G47" s="3">
-        <v>10300</v>
+        <v>6000</v>
       </c>
       <c r="H47" s="3">
-        <v>30600</v>
+        <v>6400</v>
       </c>
       <c r="I47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K47" s="3">
         <v>26900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>21200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>11100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>27900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>14900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>634200</v>
+        <v>623900</v>
       </c>
       <c r="E48" s="3">
-        <v>426800</v>
+        <v>630700</v>
       </c>
       <c r="F48" s="3">
-        <v>434700</v>
+        <v>619200</v>
       </c>
       <c r="G48" s="3">
-        <v>420500</v>
+        <v>416700</v>
       </c>
       <c r="H48" s="3">
-        <v>404600</v>
+        <v>424400</v>
       </c>
       <c r="I48" s="3">
+        <v>410600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>395000</v>
+      </c>
+      <c r="K48" s="3">
         <v>372800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>323500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>200000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>158800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>152800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>150600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>162000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14900</v>
+        <v>13100</v>
       </c>
       <c r="E52" s="3">
-        <v>9900</v>
+        <v>11600</v>
       </c>
       <c r="F52" s="3">
-        <v>8200</v>
+        <v>14500</v>
       </c>
       <c r="G52" s="3">
-        <v>6900</v>
+        <v>9700</v>
       </c>
       <c r="H52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="I52" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>3600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>700</v>
       </c>
       <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>700</v>
+      </c>
+      <c r="R52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>818000</v>
+        <v>807400</v>
       </c>
       <c r="E54" s="3">
-        <v>576300</v>
+        <v>828700</v>
       </c>
       <c r="F54" s="3">
-        <v>543400</v>
+        <v>798600</v>
       </c>
       <c r="G54" s="3">
-        <v>504500</v>
+        <v>562600</v>
       </c>
       <c r="H54" s="3">
-        <v>514000</v>
+        <v>530500</v>
       </c>
       <c r="I54" s="3">
+        <v>492600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>501800</v>
+      </c>
+      <c r="K54" s="3">
         <v>479400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>399300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>309100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>243000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>238300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>172600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>193700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4600</v>
+        <v>3700</v>
       </c>
       <c r="E57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>8400</v>
-      </c>
       <c r="H57" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52300</v>
+        <v>61900</v>
       </c>
       <c r="E58" s="3">
-        <v>44900</v>
+        <v>61900</v>
       </c>
       <c r="F58" s="3">
-        <v>36500</v>
+        <v>51100</v>
       </c>
       <c r="G58" s="3">
-        <v>35500</v>
+        <v>43900</v>
       </c>
       <c r="H58" s="3">
-        <v>14300</v>
+        <v>35600</v>
       </c>
       <c r="I58" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K58" s="3">
         <v>14100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>50500</v>
+        <v>29000</v>
       </c>
       <c r="E59" s="3">
-        <v>33000</v>
+        <v>61100</v>
       </c>
       <c r="F59" s="3">
-        <v>21200</v>
+        <v>49300</v>
       </c>
       <c r="G59" s="3">
-        <v>8400</v>
+        <v>32200</v>
       </c>
       <c r="H59" s="3">
-        <v>19600</v>
+        <v>20700</v>
       </c>
       <c r="I59" s="3">
+        <v>8200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K59" s="3">
         <v>15800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>107400</v>
+        <v>94600</v>
       </c>
       <c r="E60" s="3">
-        <v>80700</v>
+        <v>132000</v>
       </c>
       <c r="F60" s="3">
-        <v>62000</v>
+        <v>104900</v>
       </c>
       <c r="G60" s="3">
-        <v>52200</v>
+        <v>78800</v>
       </c>
       <c r="H60" s="3">
-        <v>38200</v>
+        <v>60500</v>
       </c>
       <c r="I60" s="3">
+        <v>51000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K60" s="3">
         <v>37900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>182000</v>
+        <v>131800</v>
       </c>
       <c r="E61" s="3">
-        <v>187800</v>
+        <v>139200</v>
       </c>
       <c r="F61" s="3">
-        <v>190600</v>
+        <v>177700</v>
       </c>
       <c r="G61" s="3">
-        <v>189600</v>
+        <v>183300</v>
       </c>
       <c r="H61" s="3">
-        <v>208200</v>
+        <v>186100</v>
       </c>
       <c r="I61" s="3">
+        <v>185100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>203200</v>
+      </c>
+      <c r="K61" s="3">
         <v>206600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>149900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>90800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>28100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>27700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>28200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>29100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11200</v>
+        <v>21500</v>
       </c>
       <c r="E62" s="3">
-        <v>7200</v>
+        <v>21500</v>
       </c>
       <c r="F62" s="3">
-        <v>7700</v>
+        <v>10900</v>
       </c>
       <c r="G62" s="3">
-        <v>7800</v>
+        <v>7100</v>
       </c>
       <c r="H62" s="3">
-        <v>6600</v>
+        <v>7500</v>
       </c>
       <c r="I62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K62" s="3">
         <v>4500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1200</v>
       </c>
       <c r="N62" s="3">
         <v>1200</v>
       </c>
       <c r="O62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300600</v>
+        <v>247900</v>
       </c>
       <c r="E66" s="3">
-        <v>275700</v>
+        <v>292700</v>
       </c>
       <c r="F66" s="3">
-        <v>260200</v>
+        <v>293500</v>
       </c>
       <c r="G66" s="3">
-        <v>249500</v>
+        <v>269100</v>
       </c>
       <c r="H66" s="3">
-        <v>252900</v>
+        <v>254100</v>
       </c>
       <c r="I66" s="3">
+        <v>243600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>246900</v>
+      </c>
+      <c r="K66" s="3">
         <v>249000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>170000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>101600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>35500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>33900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>34100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>33200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-86200</v>
+        <v>-45400</v>
       </c>
       <c r="E72" s="3">
-        <v>-101400</v>
+        <v>-63100</v>
       </c>
       <c r="F72" s="3">
-        <v>-95300</v>
+        <v>-84200</v>
       </c>
       <c r="G72" s="3">
-        <v>-120600</v>
+        <v>-99000</v>
       </c>
       <c r="H72" s="3">
-        <v>-114200</v>
+        <v>-93100</v>
       </c>
       <c r="I72" s="3">
+        <v>-117700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-101300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-100600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-78000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-69900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-57500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-42400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>517400</v>
+        <v>559600</v>
       </c>
       <c r="E76" s="3">
-        <v>300600</v>
+        <v>535900</v>
       </c>
       <c r="F76" s="3">
-        <v>283200</v>
+        <v>505200</v>
       </c>
       <c r="G76" s="3">
-        <v>255000</v>
+        <v>293500</v>
       </c>
       <c r="H76" s="3">
-        <v>261000</v>
+        <v>276500</v>
       </c>
       <c r="I76" s="3">
+        <v>249000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>254900</v>
+      </c>
+      <c r="K76" s="3">
         <v>230400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>229300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>207500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>207600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>204400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>138500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>160500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>201600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>12300</v>
+        <v>17900</v>
       </c>
       <c r="E81" s="3">
+        <v>25200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
-        <v>26000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H81" s="3">
-        <v>-13200</v>
+        <v>25400</v>
       </c>
       <c r="I81" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-15800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-13000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-6600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9800</v>
+        <v>8100</v>
       </c>
       <c r="E83" s="3">
-        <v>8600</v>
+        <v>2100</v>
       </c>
       <c r="F83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>-500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31900</v>
+        <v>-6600</v>
       </c>
       <c r="E89" s="3">
-        <v>27600</v>
+        <v>43000</v>
       </c>
       <c r="F89" s="3">
-        <v>28300</v>
+        <v>31100</v>
       </c>
       <c r="G89" s="3">
-        <v>-23600</v>
+        <v>26900</v>
       </c>
       <c r="H89" s="3">
-        <v>-4000</v>
+        <v>27700</v>
       </c>
       <c r="I89" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-11300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-9200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-12100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,40 +4393,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1700</v>
+        <v>-8400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1300</v>
+        <v>-1800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2900</v>
+        <v>-1200</v>
       </c>
       <c r="H91" s="3">
-        <v>-600</v>
+        <v>-6600</v>
       </c>
       <c r="I91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -3996,10 +4437,16 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="F94" s="3">
         <v>3000</v>
       </c>
-      <c r="E94" s="3">
-        <v>12200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-5700</v>
-      </c>
       <c r="G94" s="3">
-        <v>-14600</v>
+        <v>11900</v>
       </c>
       <c r="H94" s="3">
-        <v>-35700</v>
+        <v>-5600</v>
       </c>
       <c r="I94" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-39200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-67100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-16900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-14200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2700</v>
       </c>
-      <c r="E100" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-2800</v>
-      </c>
       <c r="G100" s="3">
-        <v>-5000</v>
+        <v>4400</v>
       </c>
       <c r="H100" s="3">
-        <v>41300</v>
+        <v>-2700</v>
       </c>
       <c r="I100" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K100" s="3">
         <v>65500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>17000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>55900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>3500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>69600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>37800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>2800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>31000</v>
+        <v>-16800</v>
       </c>
       <c r="E102" s="3">
-        <v>43800</v>
+        <v>9600</v>
       </c>
       <c r="F102" s="3">
-        <v>20100</v>
+        <v>30200</v>
       </c>
       <c r="G102" s="3">
-        <v>-41800</v>
+        <v>42800</v>
       </c>
       <c r="H102" s="3">
-        <v>-500</v>
+        <v>19600</v>
       </c>
       <c r="I102" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K102" s="3">
         <v>27400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-56700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>39300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-16900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>40200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-9800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>27800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,109 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E8" s="3">
         <v>69000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>76700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66200</v>
       </c>
-      <c r="G8" s="3">
-        <v>64500</v>
-      </c>
       <c r="H8" s="3">
+        <v>64600</v>
+      </c>
+      <c r="I8" s="3">
         <v>53200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
@@ -776,8 +780,8 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -788,32 +792,35 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E9" s="3">
         <v>17700</v>
       </c>
-      <c r="E9" s="3">
-        <v>20100</v>
-      </c>
       <c r="F9" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G9" s="3">
         <v>17800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1800</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,32 +845,35 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E10" s="3">
         <v>51300</v>
       </c>
-      <c r="E10" s="3">
-        <v>56500</v>
-      </c>
       <c r="F10" s="3">
-        <v>48300</v>
+        <v>56600</v>
       </c>
       <c r="G10" s="3">
+        <v>48400</v>
+      </c>
+      <c r="H10" s="3">
         <v>48500</v>
       </c>
-      <c r="H10" s="3">
-        <v>39400</v>
-      </c>
       <c r="I10" s="3">
+        <v>39500</v>
+      </c>
+      <c r="J10" s="3">
         <v>3700</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E12" s="3">
         <v>9300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,25 +1025,28 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>17900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1034,59 +1054,62 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-1300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E15" s="3">
         <v>8100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>5100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>6800</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1097,19 +1120,22 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,82 +1151,86 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E17" s="3">
         <v>40900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E18" s="3">
         <v>28100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39500</v>
       </c>
-      <c r="F18" s="3">
-        <v>24600</v>
-      </c>
       <c r="G18" s="3">
+        <v>24700</v>
+      </c>
+      <c r="H18" s="3">
         <v>15800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1213,20 +1243,23 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-15200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,32 +1278,33 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1283,44 +1317,47 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E21" s="3">
         <v>36400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>40000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>39600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>27500</v>
       </c>
-      <c r="H21" s="3">
-        <v>28800</v>
-      </c>
       <c r="I21" s="3">
+        <v>28900</v>
+      </c>
+      <c r="J21" s="3">
         <v>-6700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1333,38 +1370,41 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-13400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>4100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1378,96 +1418,102 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E23" s="3">
         <v>24200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E24" s="3">
         <v>6300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1483,8 +1529,8 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E26" s="3">
         <v>17900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E27" s="3">
         <v>17900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>25200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,32 +1912,35 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1883,70 +1953,76 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E33" s="3">
         <v>17900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E35" s="3">
         <v>17900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>113100</v>
+        <v>154700</v>
       </c>
       <c r="E41" s="3">
+        <v>113200</v>
+      </c>
+      <c r="F41" s="3">
         <v>130000</v>
       </c>
-      <c r="F41" s="3">
-        <v>120300</v>
-      </c>
       <c r="G41" s="3">
+        <v>120400</v>
+      </c>
+      <c r="H41" s="3">
         <v>90100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>47300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>68500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,46 +2330,49 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E43" s="3">
         <v>12000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7700</v>
       </c>
-      <c r="G43" s="3">
-        <v>16500</v>
-      </c>
       <c r="H43" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I43" s="3">
         <v>26400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>23100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2288,34 +2381,37 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E44" s="3">
         <v>33600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>30300</v>
       </c>
-      <c r="F44" s="3">
-        <v>24600</v>
-      </c>
       <c r="G44" s="3">
+        <v>24700</v>
+      </c>
+      <c r="H44" s="3">
         <v>20800</v>
       </c>
-      <c r="H44" s="3">
-        <v>14300</v>
-      </c>
       <c r="I44" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J44" s="3">
         <v>13000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2328,8 +2424,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2340,208 +2436,223 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>900</v>
       </c>
       <c r="N45" s="3">
         <v>900</v>
       </c>
       <c r="O45" s="3">
+        <v>900</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>163700</v>
+        <v>207700</v>
       </c>
       <c r="E46" s="3">
-        <v>179400</v>
+        <v>163800</v>
       </c>
       <c r="F46" s="3">
-        <v>158800</v>
+        <v>179500</v>
       </c>
       <c r="G46" s="3">
-        <v>130200</v>
+        <v>158900</v>
       </c>
       <c r="H46" s="3">
+        <v>130300</v>
+      </c>
+      <c r="I46" s="3">
         <v>91800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>65300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>73200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>49500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>94500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>55600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>69900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E47" s="3">
         <v>6800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6400</v>
       </c>
-      <c r="I47" s="3">
-        <v>10000</v>
-      </c>
       <c r="J47" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K47" s="3">
         <v>29900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>623900</v>
+        <v>621300</v>
       </c>
       <c r="E48" s="3">
-        <v>630700</v>
+        <v>624200</v>
       </c>
       <c r="F48" s="3">
-        <v>619200</v>
+        <v>631000</v>
       </c>
       <c r="G48" s="3">
-        <v>416700</v>
+        <v>619600</v>
       </c>
       <c r="H48" s="3">
-        <v>424400</v>
+        <v>416900</v>
       </c>
       <c r="I48" s="3">
-        <v>410600</v>
+        <v>424600</v>
       </c>
       <c r="J48" s="3">
+        <v>410800</v>
+      </c>
+      <c r="K48" s="3">
         <v>395000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>372800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>323500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>200000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>158800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>152800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>150600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>162000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E52" s="3">
         <v>13100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>700</v>
       </c>
       <c r="O52" s="3">
         <v>700</v>
       </c>
       <c r="P52" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>807400</v>
+        <v>852100</v>
       </c>
       <c r="E54" s="3">
-        <v>828700</v>
+        <v>807900</v>
       </c>
       <c r="F54" s="3">
-        <v>798600</v>
+        <v>829100</v>
       </c>
       <c r="G54" s="3">
-        <v>562600</v>
+        <v>799000</v>
       </c>
       <c r="H54" s="3">
-        <v>530500</v>
+        <v>562900</v>
       </c>
       <c r="I54" s="3">
-        <v>492600</v>
+        <v>530800</v>
       </c>
       <c r="J54" s="3">
+        <v>492900</v>
+      </c>
+      <c r="K54" s="3">
         <v>501800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>479400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>399300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>309100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>243000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>238300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>172600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>193700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,258 +3010,274 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>600</v>
       </c>
       <c r="Q57" s="3">
         <v>600</v>
       </c>
       <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F58" s="3">
         <v>61900</v>
       </c>
-      <c r="E58" s="3">
-        <v>61900</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>51100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>43900</v>
       </c>
-      <c r="H58" s="3">
-        <v>35600</v>
-      </c>
       <c r="I58" s="3">
-        <v>34600</v>
+        <v>35700</v>
       </c>
       <c r="J58" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K58" s="3">
         <v>13900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E59" s="3">
         <v>29000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61100</v>
       </c>
-      <c r="F59" s="3">
-        <v>49300</v>
-      </c>
       <c r="G59" s="3">
-        <v>32200</v>
+        <v>49400</v>
       </c>
       <c r="H59" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I59" s="3">
         <v>20700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>94600</v>
+        <v>98700</v>
       </c>
       <c r="E60" s="3">
-        <v>132000</v>
+        <v>94700</v>
       </c>
       <c r="F60" s="3">
+        <v>132100</v>
+      </c>
+      <c r="G60" s="3">
         <v>104900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>60500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>37300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>131800</v>
+        <v>124300</v>
       </c>
       <c r="E61" s="3">
-        <v>139200</v>
+        <v>131900</v>
       </c>
       <c r="F61" s="3">
+        <v>139300</v>
+      </c>
+      <c r="G61" s="3">
         <v>177700</v>
       </c>
-      <c r="G61" s="3">
-        <v>183300</v>
-      </c>
       <c r="H61" s="3">
-        <v>186100</v>
+        <v>183400</v>
       </c>
       <c r="I61" s="3">
-        <v>185100</v>
+        <v>186200</v>
       </c>
       <c r="J61" s="3">
+        <v>185200</v>
+      </c>
+      <c r="K61" s="3">
         <v>203200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>206600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>149900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>90800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>29100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,31 +3288,31 @@
         <v>21500</v>
       </c>
       <c r="F62" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G62" s="3">
         <v>10900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1200</v>
       </c>
       <c r="O62" s="3">
         <v>1200</v>
@@ -3175,13 +3321,16 @@
         <v>1200</v>
       </c>
       <c r="Q62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>247900</v>
+        <v>244500</v>
       </c>
       <c r="E66" s="3">
-        <v>292700</v>
+        <v>248000</v>
       </c>
       <c r="F66" s="3">
-        <v>293500</v>
+        <v>292900</v>
       </c>
       <c r="G66" s="3">
-        <v>269100</v>
+        <v>293600</v>
       </c>
       <c r="H66" s="3">
-        <v>254100</v>
+        <v>269300</v>
       </c>
       <c r="I66" s="3">
-        <v>243600</v>
+        <v>254200</v>
       </c>
       <c r="J66" s="3">
+        <v>243800</v>
+      </c>
+      <c r="K66" s="3">
         <v>246900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>249000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>170000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>101600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-84200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-99000</v>
-      </c>
       <c r="H72" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-93100</v>
       </c>
-      <c r="I72" s="3">
-        <v>-117700</v>
-      </c>
       <c r="J72" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-111500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-101300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-57500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-42400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>559600</v>
+        <v>607600</v>
       </c>
       <c r="E76" s="3">
-        <v>535900</v>
+        <v>559800</v>
       </c>
       <c r="F76" s="3">
-        <v>505200</v>
+        <v>536200</v>
       </c>
       <c r="G76" s="3">
-        <v>293500</v>
+        <v>505400</v>
       </c>
       <c r="H76" s="3">
-        <v>276500</v>
+        <v>293600</v>
       </c>
       <c r="I76" s="3">
-        <v>249000</v>
+        <v>276600</v>
       </c>
       <c r="J76" s="3">
+        <v>249100</v>
+      </c>
+      <c r="K76" s="3">
         <v>254900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>230400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>229300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>207500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>207600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>204400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>138500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>160500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>201600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E81" s="3">
         <v>17900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,35 +4223,36 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
         <v>8100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4061,22 +4260,25 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>-500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-22500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
       </c>
       <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-34800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-39200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-67100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>40300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>65500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>55900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>69600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>37800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>3500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9600</v>
       </c>
-      <c r="F102" s="3">
-        <v>30200</v>
-      </c>
       <c r="G102" s="3">
+        <v>30300</v>
+      </c>
+      <c r="H102" s="3">
         <v>42800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>19600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-40800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-56700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>39300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>40200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>27800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OLA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>80100</v>
+        <v>82900</v>
       </c>
       <c r="E8" s="3">
-        <v>69000</v>
+        <v>81600</v>
       </c>
       <c r="F8" s="3">
-        <v>76700</v>
+        <v>70300</v>
       </c>
       <c r="G8" s="3">
-        <v>66200</v>
+        <v>78100</v>
       </c>
       <c r="H8" s="3">
-        <v>64600</v>
+        <v>67400</v>
       </c>
       <c r="I8" s="3">
-        <v>53200</v>
+        <v>65700</v>
       </c>
       <c r="J8" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -783,8 +787,8 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -795,35 +799,38 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>20100</v>
+        <v>24100</v>
       </c>
       <c r="E9" s="3">
-        <v>17700</v>
+        <v>20500</v>
       </c>
       <c r="F9" s="3">
-        <v>20200</v>
+        <v>18000</v>
       </c>
       <c r="G9" s="3">
-        <v>17800</v>
+        <v>20500</v>
       </c>
       <c r="H9" s="3">
-        <v>16000</v>
+        <v>18100</v>
       </c>
       <c r="I9" s="3">
-        <v>13800</v>
+        <v>16300</v>
       </c>
       <c r="J9" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,35 +855,38 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>60000</v>
+        <v>58800</v>
       </c>
       <c r="E10" s="3">
-        <v>51300</v>
+        <v>61100</v>
       </c>
       <c r="F10" s="3">
-        <v>56600</v>
+        <v>52300</v>
       </c>
       <c r="G10" s="3">
-        <v>48400</v>
+        <v>57600</v>
       </c>
       <c r="H10" s="3">
-        <v>48500</v>
+        <v>49300</v>
       </c>
       <c r="I10" s="3">
-        <v>39500</v>
+        <v>49400</v>
       </c>
       <c r="J10" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K10" s="3">
         <v>3700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9700</v>
+        <v>15500</v>
       </c>
       <c r="E12" s="3">
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="F12" s="3">
-        <v>7600</v>
+        <v>9400</v>
       </c>
       <c r="G12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="O12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q12" s="3">
         <v>11200</v>
       </c>
-      <c r="H12" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="R12" s="3">
+        <v>9400</v>
+      </c>
+      <c r="S12" s="3">
         <v>3900</v>
       </c>
-      <c r="K12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>6800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>5400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>11200</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>9400</v>
-      </c>
-      <c r="R12" s="3">
-        <v>3900</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,28 +1045,31 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>17900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>18200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1057,62 +1077,65 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-1300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9400</v>
+        <v>10600</v>
       </c>
       <c r="E15" s="3">
-        <v>8100</v>
+        <v>9600</v>
       </c>
       <c r="F15" s="3">
-        <v>5100</v>
+        <v>8200</v>
       </c>
       <c r="G15" s="3">
-        <v>8600</v>
+        <v>5200</v>
       </c>
       <c r="H15" s="3">
-        <v>6800</v>
+        <v>8800</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1123,19 +1146,22 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>300</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,88 +1178,92 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44500</v>
+        <v>57500</v>
       </c>
       <c r="E17" s="3">
-        <v>40900</v>
+        <v>45300</v>
       </c>
       <c r="F17" s="3">
-        <v>37200</v>
+        <v>41700</v>
       </c>
       <c r="G17" s="3">
-        <v>41500</v>
+        <v>37900</v>
       </c>
       <c r="H17" s="3">
-        <v>48800</v>
+        <v>42300</v>
       </c>
       <c r="I17" s="3">
-        <v>22300</v>
+        <v>49700</v>
       </c>
       <c r="J17" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>35600</v>
+        <v>25500</v>
       </c>
       <c r="E18" s="3">
-        <v>28100</v>
+        <v>36200</v>
       </c>
       <c r="F18" s="3">
-        <v>39500</v>
+        <v>28600</v>
       </c>
       <c r="G18" s="3">
-        <v>24700</v>
+        <v>40200</v>
       </c>
       <c r="H18" s="3">
-        <v>15800</v>
+        <v>25100</v>
       </c>
       <c r="I18" s="3">
-        <v>30900</v>
+        <v>16100</v>
       </c>
       <c r="J18" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1246,20 +1276,23 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,35 +1312,36 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1500</v>
-      </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>-1600</v>
       </c>
       <c r="H20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1320,47 +1354,50 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>45000</v>
+        <v>39500</v>
       </c>
       <c r="E21" s="3">
-        <v>36400</v>
+        <v>45800</v>
       </c>
       <c r="F21" s="3">
-        <v>40000</v>
+        <v>37000</v>
       </c>
       <c r="G21" s="3">
-        <v>39600</v>
+        <v>40800</v>
       </c>
       <c r="H21" s="3">
-        <v>27500</v>
+        <v>40300</v>
       </c>
       <c r="I21" s="3">
-        <v>28900</v>
+        <v>28000</v>
       </c>
       <c r="J21" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1373,40 +1410,43 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
-        <v>4100</v>
-      </c>
       <c r="F22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
-        <v>3200</v>
-      </c>
       <c r="H22" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>3700</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1421,102 +1461,108 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>31900</v>
+        <v>24400</v>
       </c>
       <c r="E23" s="3">
-        <v>24200</v>
+        <v>32500</v>
       </c>
       <c r="F23" s="3">
-        <v>34200</v>
+        <v>24600</v>
       </c>
       <c r="G23" s="3">
-        <v>26800</v>
+        <v>34800</v>
       </c>
       <c r="H23" s="3">
-        <v>15400</v>
+        <v>27300</v>
       </c>
       <c r="I23" s="3">
-        <v>28300</v>
+        <v>15700</v>
       </c>
       <c r="J23" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="E24" s="3">
-        <v>6300</v>
+        <v>14800</v>
       </c>
       <c r="F24" s="3">
-        <v>9000</v>
+        <v>6400</v>
       </c>
       <c r="G24" s="3">
-        <v>14800</v>
+        <v>9100</v>
       </c>
       <c r="H24" s="3">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="I24" s="3">
+        <v>16500</v>
+      </c>
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1532,8 +1578,8 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17300</v>
+        <v>7400</v>
       </c>
       <c r="E26" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="F26" s="3">
-        <v>25200</v>
+        <v>18200</v>
       </c>
       <c r="G26" s="3">
-        <v>12000</v>
+        <v>25700</v>
       </c>
       <c r="H26" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
-        <v>25400</v>
-      </c>
       <c r="J26" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17300</v>
+        <v>7400</v>
       </c>
       <c r="E27" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="F27" s="3">
-        <v>25200</v>
+        <v>18200</v>
       </c>
       <c r="G27" s="3">
-        <v>12000</v>
+        <v>25700</v>
       </c>
       <c r="H27" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
-        <v>25400</v>
-      </c>
       <c r="J27" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,35 +1982,38 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>1500</v>
-      </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>1600</v>
       </c>
       <c r="H32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1956,73 +2026,79 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17300</v>
+        <v>7400</v>
       </c>
       <c r="E33" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="F33" s="3">
-        <v>25200</v>
+        <v>18200</v>
       </c>
       <c r="G33" s="3">
-        <v>12000</v>
+        <v>25700</v>
       </c>
       <c r="H33" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
-        <v>25400</v>
-      </c>
       <c r="J33" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17300</v>
+        <v>7400</v>
       </c>
       <c r="E35" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="F35" s="3">
-        <v>25200</v>
+        <v>18200</v>
       </c>
       <c r="G35" s="3">
-        <v>12000</v>
+        <v>25700</v>
       </c>
       <c r="H35" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
-        <v>25400</v>
-      </c>
       <c r="J35" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>154700</v>
+        <v>182600</v>
       </c>
       <c r="E41" s="3">
-        <v>113200</v>
+        <v>157500</v>
       </c>
       <c r="F41" s="3">
-        <v>130000</v>
+        <v>115300</v>
       </c>
       <c r="G41" s="3">
-        <v>120400</v>
+        <v>132400</v>
       </c>
       <c r="H41" s="3">
-        <v>90100</v>
+        <v>122600</v>
       </c>
       <c r="I41" s="3">
-        <v>47300</v>
+        <v>91800</v>
       </c>
       <c r="J41" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K41" s="3">
         <v>27700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>68500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>29600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,49 +2423,52 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10600</v>
+        <v>9800</v>
       </c>
       <c r="E43" s="3">
-        <v>12000</v>
+        <v>10800</v>
       </c>
       <c r="F43" s="3">
         <v>12200</v>
       </c>
       <c r="G43" s="3">
-        <v>7700</v>
+        <v>12400</v>
       </c>
       <c r="H43" s="3">
-        <v>16600</v>
+        <v>7800</v>
       </c>
       <c r="I43" s="3">
-        <v>26400</v>
+        <v>16900</v>
       </c>
       <c r="J43" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K43" s="3">
         <v>23100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2384,37 +2477,40 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>36500</v>
+        <v>39300</v>
       </c>
       <c r="E44" s="3">
-        <v>33600</v>
+        <v>37100</v>
       </c>
       <c r="F44" s="3">
-        <v>30300</v>
+        <v>34200</v>
       </c>
       <c r="G44" s="3">
-        <v>24700</v>
+        <v>30900</v>
       </c>
       <c r="H44" s="3">
-        <v>20800</v>
+        <v>25100</v>
       </c>
       <c r="I44" s="3">
-        <v>14400</v>
+        <v>21200</v>
       </c>
       <c r="J44" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K44" s="3">
         <v>13000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2427,8 +2523,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2439,220 +2535,235 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6000</v>
+        <v>7300</v>
       </c>
       <c r="E45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>900</v>
       </c>
       <c r="O45" s="3">
         <v>900</v>
       </c>
       <c r="P45" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>207700</v>
+        <v>239100</v>
       </c>
       <c r="E46" s="3">
-        <v>163800</v>
+        <v>211500</v>
       </c>
       <c r="F46" s="3">
-        <v>179500</v>
+        <v>166800</v>
       </c>
       <c r="G46" s="3">
-        <v>158900</v>
+        <v>182800</v>
       </c>
       <c r="H46" s="3">
-        <v>130300</v>
+        <v>161800</v>
       </c>
       <c r="I46" s="3">
-        <v>91800</v>
+        <v>132700</v>
       </c>
       <c r="J46" s="3">
+        <v>93500</v>
+      </c>
+      <c r="K46" s="3">
         <v>65300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>49500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>94500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>55600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>69900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G47" s="3">
         <v>7200</v>
       </c>
-      <c r="E47" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F47" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I47" s="3">
         <v>6100</v>
       </c>
-      <c r="H47" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>6400</v>
-      </c>
       <c r="J47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K47" s="3">
         <v>10100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>621300</v>
+        <v>628700</v>
       </c>
       <c r="E48" s="3">
-        <v>624200</v>
+        <v>632700</v>
       </c>
       <c r="F48" s="3">
-        <v>631000</v>
+        <v>635600</v>
       </c>
       <c r="G48" s="3">
-        <v>619600</v>
+        <v>642600</v>
       </c>
       <c r="H48" s="3">
-        <v>416900</v>
+        <v>630900</v>
       </c>
       <c r="I48" s="3">
         <v>424600</v>
       </c>
       <c r="J48" s="3">
+        <v>432400</v>
+      </c>
+      <c r="K48" s="3">
         <v>410800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>395000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>372800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>323500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>200000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>158800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>152800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>150600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>162000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>211000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="E52" s="3">
-        <v>13100</v>
+        <v>16200</v>
       </c>
       <c r="F52" s="3">
-        <v>11600</v>
+        <v>13400</v>
       </c>
       <c r="G52" s="3">
-        <v>14500</v>
+        <v>11800</v>
       </c>
       <c r="H52" s="3">
-        <v>9700</v>
+        <v>14800</v>
       </c>
       <c r="I52" s="3">
-        <v>8000</v>
+        <v>9900</v>
       </c>
       <c r="J52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K52" s="3">
         <v>6700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3600</v>
-      </c>
-      <c r="O52" s="3">
-        <v>700</v>
       </c>
       <c r="P52" s="3">
         <v>700</v>
       </c>
       <c r="Q52" s="3">
+        <v>700</v>
+      </c>
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>852100</v>
+        <v>891000</v>
       </c>
       <c r="E54" s="3">
-        <v>807900</v>
+        <v>867700</v>
       </c>
       <c r="F54" s="3">
-        <v>829100</v>
+        <v>822700</v>
       </c>
       <c r="G54" s="3">
-        <v>799000</v>
+        <v>844300</v>
       </c>
       <c r="H54" s="3">
-        <v>562900</v>
+        <v>813700</v>
       </c>
       <c r="I54" s="3">
-        <v>530800</v>
+        <v>573300</v>
       </c>
       <c r="J54" s="3">
+        <v>540600</v>
+      </c>
+      <c r="K54" s="3">
         <v>492900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>501800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>479400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>399300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>309100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>243000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>238300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>172600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>193700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>220400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,311 +3141,327 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4400</v>
+        <v>6300</v>
       </c>
       <c r="E57" s="3">
-        <v>3700</v>
+        <v>4500</v>
       </c>
       <c r="F57" s="3">
-        <v>9100</v>
+        <v>3800</v>
       </c>
       <c r="G57" s="3">
-        <v>4400</v>
+        <v>9200</v>
       </c>
       <c r="H57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
-        <v>8200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>4200</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
       </c>
       <c r="R57" s="3">
         <v>600</v>
       </c>
       <c r="S57" s="3">
+        <v>600</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>62000</v>
+        <v>32700</v>
       </c>
       <c r="E58" s="3">
-        <v>62000</v>
+        <v>63100</v>
       </c>
       <c r="F58" s="3">
-        <v>61900</v>
+        <v>63100</v>
       </c>
       <c r="G58" s="3">
-        <v>51100</v>
+        <v>63100</v>
       </c>
       <c r="H58" s="3">
-        <v>43900</v>
+        <v>52000</v>
       </c>
       <c r="I58" s="3">
-        <v>35700</v>
+        <v>44700</v>
       </c>
       <c r="J58" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K58" s="3">
         <v>34700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>32300</v>
+        <v>43200</v>
       </c>
       <c r="E59" s="3">
-        <v>29000</v>
+        <v>32900</v>
       </c>
       <c r="F59" s="3">
-        <v>61100</v>
+        <v>29500</v>
       </c>
       <c r="G59" s="3">
-        <v>49400</v>
+        <v>62200</v>
       </c>
       <c r="H59" s="3">
-        <v>32300</v>
+        <v>50300</v>
       </c>
       <c r="I59" s="3">
-        <v>20700</v>
+        <v>32800</v>
       </c>
       <c r="J59" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>98700</v>
+        <v>82200</v>
       </c>
       <c r="E60" s="3">
-        <v>94700</v>
+        <v>100500</v>
       </c>
       <c r="F60" s="3">
-        <v>132100</v>
+        <v>96400</v>
       </c>
       <c r="G60" s="3">
-        <v>104900</v>
+        <v>134500</v>
       </c>
       <c r="H60" s="3">
-        <v>78800</v>
+        <v>106800</v>
       </c>
       <c r="I60" s="3">
-        <v>60500</v>
+        <v>80300</v>
       </c>
       <c r="J60" s="3">
+        <v>61600</v>
+      </c>
+      <c r="K60" s="3">
         <v>51000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>37900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>124300</v>
+        <v>158900</v>
       </c>
       <c r="E61" s="3">
-        <v>131900</v>
+        <v>126600</v>
       </c>
       <c r="F61" s="3">
-        <v>139300</v>
+        <v>134300</v>
       </c>
       <c r="G61" s="3">
-        <v>177700</v>
+        <v>141800</v>
       </c>
       <c r="H61" s="3">
-        <v>183400</v>
+        <v>181000</v>
       </c>
       <c r="I61" s="3">
-        <v>186200</v>
+        <v>186800</v>
       </c>
       <c r="J61" s="3">
+        <v>189600</v>
+      </c>
+      <c r="K61" s="3">
         <v>185200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>203200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>206600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>149900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>90800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>29100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="E62" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="F62" s="3">
-        <v>21500</v>
+        <v>21900</v>
       </c>
       <c r="G62" s="3">
-        <v>10900</v>
+        <v>21900</v>
       </c>
       <c r="H62" s="3">
-        <v>7100</v>
+        <v>11100</v>
       </c>
       <c r="I62" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="J62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K62" s="3">
         <v>7600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1200</v>
       </c>
       <c r="P62" s="3">
         <v>1200</v>
@@ -3324,13 +3470,16 @@
         <v>1200</v>
       </c>
       <c r="R62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>244500</v>
+        <v>262800</v>
       </c>
       <c r="E66" s="3">
-        <v>248000</v>
+        <v>249000</v>
       </c>
       <c r="F66" s="3">
-        <v>292900</v>
+        <v>252600</v>
       </c>
       <c r="G66" s="3">
-        <v>293600</v>
+        <v>298300</v>
       </c>
       <c r="H66" s="3">
-        <v>269300</v>
+        <v>299000</v>
       </c>
       <c r="I66" s="3">
-        <v>254200</v>
+        <v>274200</v>
       </c>
       <c r="J66" s="3">
+        <v>258900</v>
+      </c>
+      <c r="K66" s="3">
         <v>243800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>246900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>249000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>170000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>101600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-28000</v>
+        <v>-21100</v>
       </c>
       <c r="E72" s="3">
-        <v>-45400</v>
+        <v>-28500</v>
       </c>
       <c r="F72" s="3">
-        <v>-63100</v>
+        <v>-46300</v>
       </c>
       <c r="G72" s="3">
-        <v>-84200</v>
+        <v>-64300</v>
       </c>
       <c r="H72" s="3">
-        <v>-99100</v>
+        <v>-85800</v>
       </c>
       <c r="I72" s="3">
-        <v>-93100</v>
+        <v>-100900</v>
       </c>
       <c r="J72" s="3">
+        <v>-94800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-117800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-111500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-101300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-57500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-54500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-42400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-65200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>607600</v>
+        <v>628200</v>
       </c>
       <c r="E76" s="3">
-        <v>559800</v>
+        <v>618700</v>
       </c>
       <c r="F76" s="3">
-        <v>536200</v>
+        <v>570100</v>
       </c>
       <c r="G76" s="3">
-        <v>505400</v>
+        <v>546100</v>
       </c>
       <c r="H76" s="3">
-        <v>293600</v>
+        <v>514700</v>
       </c>
       <c r="I76" s="3">
-        <v>276600</v>
+        <v>299000</v>
       </c>
       <c r="J76" s="3">
+        <v>281700</v>
+      </c>
+      <c r="K76" s="3">
         <v>249100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>254900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>230400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>229300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>207500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>207600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>204400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>138500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>160500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>201600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17300</v>
+        <v>7400</v>
       </c>
       <c r="E81" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="F81" s="3">
-        <v>25200</v>
+        <v>18200</v>
       </c>
       <c r="G81" s="3">
-        <v>12000</v>
+        <v>25700</v>
       </c>
       <c r="H81" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
-        <v>25400</v>
-      </c>
       <c r="J81" s="3">
+        <v>25800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,38 +4422,39 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9400</v>
+        <v>10600</v>
       </c>
       <c r="E83" s="3">
-        <v>8100</v>
+        <v>9600</v>
       </c>
       <c r="F83" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
-        <v>9600</v>
-      </c>
       <c r="H83" s="3">
-        <v>8400</v>
+        <v>9700</v>
       </c>
       <c r="I83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4263,22 +4462,25 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>-500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>31500</v>
+        <v>34400</v>
       </c>
       <c r="E89" s="3">
-        <v>-6600</v>
+        <v>32000</v>
       </c>
       <c r="F89" s="3">
-        <v>43000</v>
+        <v>-6800</v>
       </c>
       <c r="G89" s="3">
-        <v>31100</v>
+        <v>43800</v>
       </c>
       <c r="H89" s="3">
-        <v>26900</v>
+        <v>31700</v>
       </c>
       <c r="I89" s="3">
-        <v>27700</v>
+        <v>27400</v>
       </c>
       <c r="J89" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-23100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-300</v>
       </c>
       <c r="O91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6500</v>
+        <v>-8600</v>
       </c>
       <c r="E94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
-        <v>-27300</v>
-      </c>
       <c r="G94" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="H94" s="3">
         <v>3000</v>
       </c>
-      <c r="H94" s="3">
-        <v>11900</v>
-      </c>
       <c r="I94" s="3">
-        <v>-5600</v>
+        <v>12100</v>
       </c>
       <c r="J94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-14300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-34800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-39200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-67100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16000</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>-9500</v>
+        <v>16300</v>
       </c>
       <c r="F100" s="3">
-        <v>-6300</v>
+        <v>-9700</v>
       </c>
       <c r="G100" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H100" s="3">
         <v>-2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>40300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>65500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>17000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>55900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>69600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>37800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>3500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41500</v>
+        <v>25100</v>
       </c>
       <c r="E102" s="3">
-        <v>-16800</v>
+        <v>42300</v>
       </c>
       <c r="F102" s="3">
-        <v>9600</v>
+        <v>-17200</v>
       </c>
       <c r="G102" s="3">
-        <v>30300</v>
+        <v>9800</v>
       </c>
       <c r="H102" s="3">
-        <v>42800</v>
+        <v>30800</v>
       </c>
       <c r="I102" s="3">
-        <v>19600</v>
+        <v>43600</v>
       </c>
       <c r="J102" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-40800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-56700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>39300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-16900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>40200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>27800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>
